--- a/crimes.xlsx
+++ b/crimes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$1171</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -630,15 +630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1171"/>
+  <dimension ref="A1:F1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
+      <selection activeCell="E1150" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -7811,7 +7813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="16" t="s">
         <v>11</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="16" t="s">
         <v>11</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="16" t="s">
         <v>11</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="16" t="s">
         <v>11</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="16" t="s">
         <v>11</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="16" t="s">
         <v>11</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="16" t="s">
         <v>11</v>
       </c>
@@ -7909,7 +7911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="16" t="s">
         <v>11</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="16" t="s">
         <v>11</v>
       </c>
@@ -7937,7 +7939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="16" t="s">
         <v>11</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="16" t="s">
         <v>11</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="16" t="s">
         <v>11</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="16" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="16" t="s">
         <v>12</v>
       </c>
@@ -8007,10 +8009,8 @@
         <v>26</v>
       </c>
       <c r="E526" s="2"/>
-      <c r="F526" s="2"/>
-      <c r="G526" s="2"/>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="16" t="s">
         <v>12</v>
       </c>
@@ -8024,10 +8024,8 @@
         <v>26</v>
       </c>
       <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="16" t="s">
         <v>12</v>
       </c>
@@ -8041,10 +8039,8 @@
         <v>26</v>
       </c>
       <c r="E528" s="2"/>
-      <c r="F528" s="2"/>
-      <c r="G528" s="2"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="16" t="s">
         <v>12</v>
       </c>
@@ -8058,10 +8054,8 @@
         <v>26</v>
       </c>
       <c r="E529" s="2"/>
-      <c r="F529" s="2"/>
-      <c r="G529" s="2"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="16" t="s">
         <v>12</v>
       </c>
@@ -8075,10 +8069,8 @@
         <v>26</v>
       </c>
       <c r="E530" s="2"/>
-      <c r="F530" s="2"/>
-      <c r="G530" s="2"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="16" t="s">
         <v>12</v>
       </c>
@@ -8092,10 +8084,8 @@
         <v>26</v>
       </c>
       <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="16" t="s">
         <v>12</v>
       </c>
@@ -8109,10 +8099,8 @@
         <v>26</v>
       </c>
       <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="16" t="s">
         <v>12</v>
       </c>
@@ -8126,10 +8114,8 @@
         <v>26</v>
       </c>
       <c r="E533" s="2"/>
-      <c r="F533" s="2"/>
-      <c r="G533" s="2"/>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="16" t="s">
         <v>12</v>
       </c>
@@ -8143,10 +8129,8 @@
         <v>26</v>
       </c>
       <c r="E534" s="2"/>
-      <c r="F534" s="2"/>
-      <c r="G534" s="2"/>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="16" t="s">
         <v>12</v>
       </c>
@@ -8160,10 +8144,8 @@
         <v>26</v>
       </c>
       <c r="E535" s="2"/>
-      <c r="F535" s="2"/>
-      <c r="G535" s="2"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="16" t="s">
         <v>12</v>
       </c>
@@ -8177,10 +8159,8 @@
         <v>26</v>
       </c>
       <c r="E536" s="2"/>
-      <c r="F536" s="2"/>
-      <c r="G536" s="2"/>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="16" t="s">
         <v>12</v>
       </c>
@@ -8194,10 +8174,8 @@
         <v>26</v>
       </c>
       <c r="E537" s="2"/>
-      <c r="F537" s="2"/>
-      <c r="G537" s="2"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="16" t="s">
         <v>12</v>
       </c>
@@ -8211,10 +8189,8 @@
         <v>26</v>
       </c>
       <c r="E538" s="2"/>
-      <c r="F538" s="2"/>
-      <c r="G538" s="2"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="16" t="s">
         <v>12</v>
       </c>
@@ -8228,10 +8204,8 @@
         <v>26</v>
       </c>
       <c r="E539" s="2"/>
-      <c r="F539" s="2"/>
-      <c r="G539" s="2"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="16" t="s">
         <v>12</v>
       </c>
@@ -8245,10 +8219,8 @@
         <v>26</v>
       </c>
       <c r="E540" s="2"/>
-      <c r="F540" s="2"/>
-      <c r="G540" s="2"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="16" t="s">
         <v>12</v>
       </c>
@@ -8262,10 +8234,8 @@
         <v>26</v>
       </c>
       <c r="E541" s="2"/>
-      <c r="F541" s="2"/>
-      <c r="G541" s="2"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="16" t="s">
         <v>12</v>
       </c>
@@ -8279,10 +8249,8 @@
         <v>26</v>
       </c>
       <c r="E542" s="2"/>
-      <c r="F542" s="2"/>
-      <c r="G542" s="2"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="16" t="s">
         <v>12</v>
       </c>
@@ -8296,10 +8264,8 @@
         <v>26</v>
       </c>
       <c r="E543" s="2"/>
-      <c r="F543" s="2"/>
-      <c r="G543" s="2"/>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="16" t="s">
         <v>12</v>
       </c>
@@ -8313,10 +8279,8 @@
         <v>26</v>
       </c>
       <c r="E544" s="2"/>
-      <c r="F544" s="2"/>
-      <c r="G544" s="2"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="16" t="s">
         <v>12</v>
       </c>
@@ -8330,10 +8294,8 @@
         <v>26</v>
       </c>
       <c r="E545" s="2"/>
-      <c r="F545" s="2"/>
-      <c r="G545" s="2"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="16" t="s">
         <v>12</v>
       </c>
@@ -8347,10 +8309,8 @@
         <v>26</v>
       </c>
       <c r="E546" s="2"/>
-      <c r="F546" s="2"/>
-      <c r="G546" s="2"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="16" t="s">
         <v>12</v>
       </c>
@@ -8364,10 +8324,8 @@
         <v>26</v>
       </c>
       <c r="E547" s="7"/>
-      <c r="F547" s="7"/>
-      <c r="G547" s="7"/>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="16" t="s">
         <v>12</v>
       </c>
@@ -8381,10 +8339,8 @@
         <v>27</v>
       </c>
       <c r="E548" s="2"/>
-      <c r="F548" s="2"/>
-      <c r="G548" s="2"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="16" t="s">
         <v>12</v>
       </c>
@@ -8398,10 +8354,8 @@
         <v>27</v>
       </c>
       <c r="E549" s="2"/>
-      <c r="F549" s="2"/>
-      <c r="G549" s="2"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="16" t="s">
         <v>12</v>
       </c>
@@ -8415,10 +8369,8 @@
         <v>27</v>
       </c>
       <c r="E550" s="2"/>
-      <c r="F550" s="2"/>
-      <c r="G550" s="2"/>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="16" t="s">
         <v>12</v>
       </c>
@@ -8432,10 +8384,8 @@
         <v>27</v>
       </c>
       <c r="E551" s="2"/>
-      <c r="F551" s="2"/>
-      <c r="G551" s="2"/>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="16" t="s">
         <v>12</v>
       </c>
@@ -8449,10 +8399,8 @@
         <v>27</v>
       </c>
       <c r="E552" s="2"/>
-      <c r="F552" s="2"/>
-      <c r="G552" s="2"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="16" t="s">
         <v>12</v>
       </c>
@@ -8466,10 +8414,8 @@
         <v>27</v>
       </c>
       <c r="E553" s="2"/>
-      <c r="F553" s="2"/>
-      <c r="G553" s="2"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="16" t="s">
         <v>12</v>
       </c>
@@ -8483,10 +8429,8 @@
         <v>27</v>
       </c>
       <c r="E554" s="2"/>
-      <c r="F554" s="2"/>
-      <c r="G554" s="2"/>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="16" t="s">
         <v>12</v>
       </c>
@@ -8500,10 +8444,8 @@
         <v>27</v>
       </c>
       <c r="E555" s="2"/>
-      <c r="F555" s="2"/>
-      <c r="G555" s="2"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="16" t="s">
         <v>12</v>
       </c>
@@ -8517,10 +8459,8 @@
         <v>27</v>
       </c>
       <c r="E556" s="2"/>
-      <c r="F556" s="2"/>
-      <c r="G556" s="2"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="16" t="s">
         <v>12</v>
       </c>
@@ -8534,10 +8474,8 @@
         <v>27</v>
       </c>
       <c r="E557" s="2"/>
-      <c r="F557" s="2"/>
-      <c r="G557" s="2"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="16" t="s">
         <v>12</v>
       </c>
@@ -8551,10 +8489,8 @@
         <v>27</v>
       </c>
       <c r="E558" s="2"/>
-      <c r="F558" s="2"/>
-      <c r="G558" s="2"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="16" t="s">
         <v>12</v>
       </c>
@@ -8568,10 +8504,8 @@
         <v>27</v>
       </c>
       <c r="E559" s="2"/>
-      <c r="F559" s="2"/>
-      <c r="G559" s="2"/>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="16" t="s">
         <v>12</v>
       </c>
@@ -8585,10 +8519,8 @@
         <v>27</v>
       </c>
       <c r="E560" s="2"/>
-      <c r="F560" s="2"/>
-      <c r="G560" s="2"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="16" t="s">
         <v>12</v>
       </c>
@@ -8602,10 +8534,8 @@
         <v>27</v>
       </c>
       <c r="E561" s="2"/>
-      <c r="F561" s="2"/>
-      <c r="G561" s="2"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="16" t="s">
         <v>12</v>
       </c>
@@ -8619,10 +8549,8 @@
         <v>27</v>
       </c>
       <c r="E562" s="2"/>
-      <c r="F562" s="2"/>
-      <c r="G562" s="2"/>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="16" t="s">
         <v>12</v>
       </c>
@@ -8636,10 +8564,8 @@
         <v>27</v>
       </c>
       <c r="E563" s="2"/>
-      <c r="F563" s="2"/>
-      <c r="G563" s="2"/>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="16" t="s">
         <v>12</v>
       </c>
@@ -8653,10 +8579,8 @@
         <v>27</v>
       </c>
       <c r="E564" s="2"/>
-      <c r="F564" s="2"/>
-      <c r="G564" s="2"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="16" t="s">
         <v>12</v>
       </c>
@@ -8670,10 +8594,8 @@
         <v>27</v>
       </c>
       <c r="E565" s="2"/>
-      <c r="F565" s="2"/>
-      <c r="G565" s="2"/>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="16" t="s">
         <v>12</v>
       </c>
@@ -8687,10 +8609,8 @@
         <v>27</v>
       </c>
       <c r="E566" s="2"/>
-      <c r="F566" s="2"/>
-      <c r="G566" s="2"/>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="16" t="s">
         <v>12</v>
       </c>
@@ -8704,10 +8624,8 @@
         <v>27</v>
       </c>
       <c r="E567" s="2"/>
-      <c r="F567" s="2"/>
-      <c r="G567" s="2"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="16" t="s">
         <v>12</v>
       </c>
@@ -8721,10 +8639,8 @@
         <v>27</v>
       </c>
       <c r="E568" s="2"/>
-      <c r="F568" s="2"/>
-      <c r="G568" s="2"/>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="16" t="s">
         <v>12</v>
       </c>
@@ -8738,10 +8654,8 @@
         <v>27</v>
       </c>
       <c r="E569" s="7"/>
-      <c r="F569" s="7"/>
-      <c r="G569" s="7"/>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="16" t="s">
         <v>13</v>
       </c>
@@ -8755,10 +8669,8 @@
         <v>26</v>
       </c>
       <c r="E570" s="2"/>
-      <c r="F570" s="2"/>
-      <c r="G570" s="2"/>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="16" t="s">
         <v>13</v>
       </c>
@@ -8772,10 +8684,8 @@
         <v>26</v>
       </c>
       <c r="E571" s="2"/>
-      <c r="F571" s="2"/>
-      <c r="G571" s="2"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="16" t="s">
         <v>13</v>
       </c>
@@ -8789,10 +8699,8 @@
         <v>26</v>
       </c>
       <c r="E572" s="2"/>
-      <c r="F572" s="2"/>
-      <c r="G572" s="2"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="16" t="s">
         <v>13</v>
       </c>
@@ -8806,10 +8714,8 @@
         <v>26</v>
       </c>
       <c r="E573" s="2"/>
-      <c r="F573" s="2"/>
-      <c r="G573" s="2"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="16" t="s">
         <v>13</v>
       </c>
@@ -8823,10 +8729,8 @@
         <v>26</v>
       </c>
       <c r="E574" s="2"/>
-      <c r="F574" s="2"/>
-      <c r="G574" s="2"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="16" t="s">
         <v>13</v>
       </c>
@@ -8840,10 +8744,8 @@
         <v>26</v>
       </c>
       <c r="E575" s="2"/>
-      <c r="F575" s="2"/>
-      <c r="G575" s="2"/>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="16" t="s">
         <v>13</v>
       </c>
@@ -8857,10 +8759,8 @@
         <v>26</v>
       </c>
       <c r="E576" s="2"/>
-      <c r="F576" s="2"/>
-      <c r="G576" s="2"/>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="16" t="s">
         <v>13</v>
       </c>
@@ -8874,10 +8774,8 @@
         <v>26</v>
       </c>
       <c r="E577" s="2"/>
-      <c r="F577" s="2"/>
-      <c r="G577" s="2"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="16" t="s">
         <v>13</v>
       </c>
@@ -8891,10 +8789,8 @@
         <v>26</v>
       </c>
       <c r="E578" s="2"/>
-      <c r="F578" s="2"/>
-      <c r="G578" s="2"/>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="16" t="s">
         <v>13</v>
       </c>
@@ -8908,10 +8804,8 @@
         <v>26</v>
       </c>
       <c r="E579" s="2"/>
-      <c r="F579" s="2"/>
-      <c r="G579" s="2"/>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="16" t="s">
         <v>13</v>
       </c>
@@ -8925,10 +8819,8 @@
         <v>26</v>
       </c>
       <c r="E580" s="2"/>
-      <c r="F580" s="2"/>
-      <c r="G580" s="2"/>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="16" t="s">
         <v>13</v>
       </c>
@@ -8942,10 +8834,8 @@
         <v>26</v>
       </c>
       <c r="E581" s="2"/>
-      <c r="F581" s="2"/>
-      <c r="G581" s="2"/>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="16" t="s">
         <v>13</v>
       </c>
@@ -8959,10 +8849,8 @@
         <v>26</v>
       </c>
       <c r="E582" s="2"/>
-      <c r="F582" s="2"/>
-      <c r="G582" s="2"/>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="16" t="s">
         <v>13</v>
       </c>
@@ -8976,10 +8864,8 @@
         <v>26</v>
       </c>
       <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="16" t="s">
         <v>13</v>
       </c>
@@ -8993,10 +8879,8 @@
         <v>26</v>
       </c>
       <c r="E584" s="2"/>
-      <c r="F584" s="2"/>
-      <c r="G584" s="2"/>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="16" t="s">
         <v>13</v>
       </c>
@@ -9010,10 +8894,8 @@
         <v>26</v>
       </c>
       <c r="E585" s="2"/>
-      <c r="F585" s="2"/>
-      <c r="G585" s="2"/>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="16" t="s">
         <v>13</v>
       </c>
@@ -9027,10 +8909,8 @@
         <v>26</v>
       </c>
       <c r="E586" s="2"/>
-      <c r="F586" s="2"/>
-      <c r="G586" s="2"/>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="16" t="s">
         <v>13</v>
       </c>
@@ -9044,10 +8924,8 @@
         <v>26</v>
       </c>
       <c r="E587" s="2"/>
-      <c r="F587" s="2"/>
-      <c r="G587" s="2"/>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="16" t="s">
         <v>13</v>
       </c>
@@ -9061,10 +8939,8 @@
         <v>26</v>
       </c>
       <c r="E588" s="2"/>
-      <c r="F588" s="2"/>
-      <c r="G588" s="2"/>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="16" t="s">
         <v>13</v>
       </c>
@@ -9078,10 +8954,8 @@
         <v>26</v>
       </c>
       <c r="E589" s="2"/>
-      <c r="F589" s="2"/>
-      <c r="G589" s="2"/>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="16" t="s">
         <v>13</v>
       </c>
@@ -9095,10 +8969,8 @@
         <v>26</v>
       </c>
       <c r="E590" s="2"/>
-      <c r="F590" s="2"/>
-      <c r="G590" s="2"/>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="16" t="s">
         <v>13</v>
       </c>
@@ -9112,10 +8984,8 @@
         <v>26</v>
       </c>
       <c r="E591" s="7"/>
-      <c r="F591" s="7"/>
-      <c r="G591" s="7"/>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="16" t="s">
         <v>13</v>
       </c>
@@ -9129,10 +8999,8 @@
         <v>27</v>
       </c>
       <c r="E592" s="2"/>
-      <c r="F592" s="2"/>
-      <c r="G592" s="2"/>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="16" t="s">
         <v>13</v>
       </c>
@@ -9146,10 +9014,8 @@
         <v>27</v>
       </c>
       <c r="E593" s="2"/>
-      <c r="F593" s="2"/>
-      <c r="G593" s="2"/>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="16" t="s">
         <v>13</v>
       </c>
@@ -9163,10 +9029,8 @@
         <v>27</v>
       </c>
       <c r="E594" s="2"/>
-      <c r="F594" s="2"/>
-      <c r="G594" s="2"/>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="16" t="s">
         <v>13</v>
       </c>
@@ -9180,10 +9044,8 @@
         <v>27</v>
       </c>
       <c r="E595" s="2"/>
-      <c r="F595" s="2"/>
-      <c r="G595" s="2"/>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="16" t="s">
         <v>13</v>
       </c>
@@ -9197,10 +9059,8 @@
         <v>27</v>
       </c>
       <c r="E596" s="2"/>
-      <c r="F596" s="2"/>
-      <c r="G596" s="2"/>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="16" t="s">
         <v>13</v>
       </c>
@@ -9214,10 +9074,8 @@
         <v>27</v>
       </c>
       <c r="E597" s="2"/>
-      <c r="F597" s="2"/>
-      <c r="G597" s="2"/>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>13</v>
       </c>
@@ -9231,10 +9089,8 @@
         <v>27</v>
       </c>
       <c r="E598" s="2"/>
-      <c r="F598" s="2"/>
-      <c r="G598" s="2"/>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>13</v>
       </c>
@@ -9248,10 +9104,8 @@
         <v>27</v>
       </c>
       <c r="E599" s="2"/>
-      <c r="F599" s="2"/>
-      <c r="G599" s="2"/>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="16" t="s">
         <v>13</v>
       </c>
@@ -9265,10 +9119,8 @@
         <v>27</v>
       </c>
       <c r="E600" s="2"/>
-      <c r="F600" s="2"/>
-      <c r="G600" s="2"/>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="16" t="s">
         <v>13</v>
       </c>
@@ -9282,10 +9134,8 @@
         <v>27</v>
       </c>
       <c r="E601" s="2"/>
-      <c r="F601" s="2"/>
-      <c r="G601" s="2"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="16" t="s">
         <v>13</v>
       </c>
@@ -9299,10 +9149,8 @@
         <v>27</v>
       </c>
       <c r="E602" s="2"/>
-      <c r="F602" s="2"/>
-      <c r="G602" s="2"/>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="16" t="s">
         <v>13</v>
       </c>
@@ -9316,10 +9164,8 @@
         <v>27</v>
       </c>
       <c r="E603" s="2"/>
-      <c r="F603" s="2"/>
-      <c r="G603" s="2"/>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="16" t="s">
         <v>13</v>
       </c>
@@ -9333,10 +9179,8 @@
         <v>27</v>
       </c>
       <c r="E604" s="2"/>
-      <c r="F604" s="2"/>
-      <c r="G604" s="2"/>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="16" t="s">
         <v>13</v>
       </c>
@@ -9350,10 +9194,8 @@
         <v>27</v>
       </c>
       <c r="E605" s="2"/>
-      <c r="F605" s="2"/>
-      <c r="G605" s="2"/>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="16" t="s">
         <v>13</v>
       </c>
@@ -9367,10 +9209,8 @@
         <v>27</v>
       </c>
       <c r="E606" s="2"/>
-      <c r="F606" s="2"/>
-      <c r="G606" s="2"/>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="16" t="s">
         <v>13</v>
       </c>
@@ -9384,10 +9224,8 @@
         <v>27</v>
       </c>
       <c r="E607" s="2"/>
-      <c r="F607" s="2"/>
-      <c r="G607" s="2"/>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="16" t="s">
         <v>13</v>
       </c>
@@ -9401,10 +9239,8 @@
         <v>27</v>
       </c>
       <c r="E608" s="2"/>
-      <c r="F608" s="2"/>
-      <c r="G608" s="2"/>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="16" t="s">
         <v>13</v>
       </c>
@@ -9418,10 +9254,8 @@
         <v>27</v>
       </c>
       <c r="E609" s="2"/>
-      <c r="F609" s="2"/>
-      <c r="G609" s="2"/>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="16" t="s">
         <v>13</v>
       </c>
@@ -9435,10 +9269,8 @@
         <v>27</v>
       </c>
       <c r="E610" s="2"/>
-      <c r="F610" s="2"/>
-      <c r="G610" s="2"/>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="16" t="s">
         <v>13</v>
       </c>
@@ -9452,10 +9284,8 @@
         <v>27</v>
       </c>
       <c r="E611" s="2"/>
-      <c r="F611" s="2"/>
-      <c r="G611" s="2"/>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="16" t="s">
         <v>13</v>
       </c>
@@ -9469,10 +9299,8 @@
         <v>27</v>
       </c>
       <c r="E612" s="2"/>
-      <c r="F612" s="2"/>
-      <c r="G612" s="2"/>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="16" t="s">
         <v>13</v>
       </c>
@@ -9486,10 +9314,8 @@
         <v>27</v>
       </c>
       <c r="E613" s="7"/>
-      <c r="F613" s="7"/>
-      <c r="G613" s="7"/>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="16" t="s">
         <v>14</v>
       </c>
@@ -9503,10 +9329,8 @@
         <v>26</v>
       </c>
       <c r="E614" s="2"/>
-      <c r="F614" s="2"/>
-      <c r="G614" s="2"/>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="16" t="s">
         <v>14</v>
       </c>
@@ -9520,10 +9344,8 @@
         <v>26</v>
       </c>
       <c r="E615" s="2"/>
-      <c r="F615" s="2"/>
-      <c r="G615" s="2"/>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="16" t="s">
         <v>14</v>
       </c>
@@ -9537,10 +9359,8 @@
         <v>26</v>
       </c>
       <c r="E616" s="2"/>
-      <c r="F616" s="2"/>
-      <c r="G616" s="2"/>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="16" t="s">
         <v>14</v>
       </c>
@@ -9554,10 +9374,8 @@
         <v>26</v>
       </c>
       <c r="E617" s="2"/>
-      <c r="F617" s="2"/>
-      <c r="G617" s="2"/>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="16" t="s">
         <v>14</v>
       </c>
@@ -9571,10 +9389,8 @@
         <v>26</v>
       </c>
       <c r="E618" s="2"/>
-      <c r="F618" s="2"/>
-      <c r="G618" s="2"/>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="16" t="s">
         <v>14</v>
       </c>
@@ -9588,10 +9404,8 @@
         <v>26</v>
       </c>
       <c r="E619" s="2"/>
-      <c r="F619" s="2"/>
-      <c r="G619" s="2"/>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="16" t="s">
         <v>14</v>
       </c>
@@ -9605,10 +9419,8 @@
         <v>26</v>
       </c>
       <c r="E620" s="2"/>
-      <c r="F620" s="2"/>
-      <c r="G620" s="2"/>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="16" t="s">
         <v>14</v>
       </c>
@@ -9622,10 +9434,8 @@
         <v>26</v>
       </c>
       <c r="E621" s="2"/>
-      <c r="F621" s="2"/>
-      <c r="G621" s="2"/>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="16" t="s">
         <v>14</v>
       </c>
@@ -9639,10 +9449,8 @@
         <v>26</v>
       </c>
       <c r="E622" s="2"/>
-      <c r="F622" s="2"/>
-      <c r="G622" s="2"/>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="16" t="s">
         <v>14</v>
       </c>
@@ -9656,10 +9464,8 @@
         <v>26</v>
       </c>
       <c r="E623" s="2"/>
-      <c r="F623" s="2"/>
-      <c r="G623" s="2"/>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="16" t="s">
         <v>14</v>
       </c>
@@ -9673,10 +9479,8 @@
         <v>26</v>
       </c>
       <c r="E624" s="2"/>
-      <c r="F624" s="2"/>
-      <c r="G624" s="2"/>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="16" t="s">
         <v>14</v>
       </c>
@@ -9690,10 +9494,8 @@
         <v>26</v>
       </c>
       <c r="E625" s="2"/>
-      <c r="F625" s="2"/>
-      <c r="G625" s="2"/>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="16" t="s">
         <v>14</v>
       </c>
@@ -9707,10 +9509,8 @@
         <v>26</v>
       </c>
       <c r="E626" s="2"/>
-      <c r="F626" s="2"/>
-      <c r="G626" s="2"/>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="16" t="s">
         <v>14</v>
       </c>
@@ -9724,10 +9524,8 @@
         <v>26</v>
       </c>
       <c r="E627" s="2"/>
-      <c r="F627" s="2"/>
-      <c r="G627" s="2"/>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="16" t="s">
         <v>14</v>
       </c>
@@ -9741,10 +9539,8 @@
         <v>26</v>
       </c>
       <c r="E628" s="2"/>
-      <c r="F628" s="2"/>
-      <c r="G628" s="2"/>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="16" t="s">
         <v>14</v>
       </c>
@@ -9758,10 +9554,8 @@
         <v>26</v>
       </c>
       <c r="E629" s="2"/>
-      <c r="F629" s="2"/>
-      <c r="G629" s="2"/>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="16" t="s">
         <v>14</v>
       </c>
@@ -9775,10 +9569,8 @@
         <v>26</v>
       </c>
       <c r="E630" s="2"/>
-      <c r="F630" s="2"/>
-      <c r="G630" s="2"/>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="16" t="s">
         <v>14</v>
       </c>
@@ -9792,10 +9584,8 @@
         <v>26</v>
       </c>
       <c r="E631" s="2"/>
-      <c r="F631" s="2"/>
-      <c r="G631" s="2"/>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="16" t="s">
         <v>14</v>
       </c>
@@ -9809,10 +9599,8 @@
         <v>26</v>
       </c>
       <c r="E632" s="2"/>
-      <c r="F632" s="2"/>
-      <c r="G632" s="2"/>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="16" t="s">
         <v>14</v>
       </c>
@@ -9826,10 +9614,8 @@
         <v>26</v>
       </c>
       <c r="E633" s="2"/>
-      <c r="F633" s="2"/>
-      <c r="G633" s="2"/>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="16" t="s">
         <v>14</v>
       </c>
@@ -9843,10 +9629,8 @@
         <v>26</v>
       </c>
       <c r="E634" s="2"/>
-      <c r="F634" s="2"/>
-      <c r="G634" s="2"/>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="16" t="s">
         <v>14</v>
       </c>
@@ -9860,10 +9644,8 @@
         <v>26</v>
       </c>
       <c r="E635" s="7"/>
-      <c r="F635" s="7"/>
-      <c r="G635" s="7"/>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="16" t="s">
         <v>14</v>
       </c>
@@ -9877,10 +9659,8 @@
         <v>27</v>
       </c>
       <c r="E636" s="2"/>
-      <c r="F636" s="2"/>
-      <c r="G636" s="2"/>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="16" t="s">
         <v>14</v>
       </c>
@@ -9894,10 +9674,8 @@
         <v>27</v>
       </c>
       <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="16" t="s">
         <v>14</v>
       </c>
@@ -9911,10 +9689,8 @@
         <v>27</v>
       </c>
       <c r="E638" s="2"/>
-      <c r="F638" s="2"/>
-      <c r="G638" s="2"/>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="16" t="s">
         <v>14</v>
       </c>
@@ -9928,10 +9704,8 @@
         <v>27</v>
       </c>
       <c r="E639" s="2"/>
-      <c r="F639" s="2"/>
-      <c r="G639" s="2"/>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="16" t="s">
         <v>14</v>
       </c>
@@ -9945,10 +9719,8 @@
         <v>27</v>
       </c>
       <c r="E640" s="2"/>
-      <c r="F640" s="2"/>
-      <c r="G640" s="2"/>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="16" t="s">
         <v>14</v>
       </c>
@@ -9962,10 +9734,8 @@
         <v>27</v>
       </c>
       <c r="E641" s="2"/>
-      <c r="F641" s="2"/>
-      <c r="G641" s="2"/>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="16" t="s">
         <v>14</v>
       </c>
@@ -9979,10 +9749,8 @@
         <v>27</v>
       </c>
       <c r="E642" s="2"/>
-      <c r="F642" s="2"/>
-      <c r="G642" s="2"/>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="16" t="s">
         <v>14</v>
       </c>
@@ -9996,10 +9764,8 @@
         <v>27</v>
       </c>
       <c r="E643" s="2"/>
-      <c r="F643" s="2"/>
-      <c r="G643" s="2"/>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="16" t="s">
         <v>14</v>
       </c>
@@ -10013,10 +9779,8 @@
         <v>27</v>
       </c>
       <c r="E644" s="2"/>
-      <c r="F644" s="2"/>
-      <c r="G644" s="2"/>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="16" t="s">
         <v>14</v>
       </c>
@@ -10030,10 +9794,8 @@
         <v>27</v>
       </c>
       <c r="E645" s="2"/>
-      <c r="F645" s="2"/>
-      <c r="G645" s="2"/>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="16" t="s">
         <v>14</v>
       </c>
@@ -10047,10 +9809,8 @@
         <v>27</v>
       </c>
       <c r="E646" s="2"/>
-      <c r="F646" s="2"/>
-      <c r="G646" s="2"/>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="16" t="s">
         <v>14</v>
       </c>
@@ -10064,10 +9824,8 @@
         <v>27</v>
       </c>
       <c r="E647" s="2"/>
-      <c r="F647" s="2"/>
-      <c r="G647" s="2"/>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="16" t="s">
         <v>14</v>
       </c>
@@ -10081,10 +9839,8 @@
         <v>27</v>
       </c>
       <c r="E648" s="2"/>
-      <c r="F648" s="2"/>
-      <c r="G648" s="2"/>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="16" t="s">
         <v>14</v>
       </c>
@@ -10098,10 +9854,8 @@
         <v>27</v>
       </c>
       <c r="E649" s="2"/>
-      <c r="F649" s="2"/>
-      <c r="G649" s="2"/>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="16" t="s">
         <v>14</v>
       </c>
@@ -10115,10 +9869,8 @@
         <v>27</v>
       </c>
       <c r="E650" s="2"/>
-      <c r="F650" s="2"/>
-      <c r="G650" s="2"/>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="16" t="s">
         <v>14</v>
       </c>
@@ -10132,10 +9884,8 @@
         <v>27</v>
       </c>
       <c r="E651" s="2"/>
-      <c r="F651" s="2"/>
-      <c r="G651" s="2"/>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="16" t="s">
         <v>14</v>
       </c>
@@ -10149,10 +9899,8 @@
         <v>27</v>
       </c>
       <c r="E652" s="2"/>
-      <c r="F652" s="2"/>
-      <c r="G652" s="2"/>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="16" t="s">
         <v>14</v>
       </c>
@@ -10166,10 +9914,8 @@
         <v>27</v>
       </c>
       <c r="E653" s="2"/>
-      <c r="F653" s="2"/>
-      <c r="G653" s="2"/>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="16" t="s">
         <v>14</v>
       </c>
@@ -10183,10 +9929,8 @@
         <v>27</v>
       </c>
       <c r="E654" s="2"/>
-      <c r="F654" s="2"/>
-      <c r="G654" s="2"/>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="16" t="s">
         <v>14</v>
       </c>
@@ -10200,10 +9944,8 @@
         <v>27</v>
       </c>
       <c r="E655" s="2"/>
-      <c r="F655" s="2"/>
-      <c r="G655" s="2"/>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="16" t="s">
         <v>14</v>
       </c>
@@ -10217,10 +9959,8 @@
         <v>27</v>
       </c>
       <c r="E656" s="2"/>
-      <c r="F656" s="2"/>
-      <c r="G656" s="2"/>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="16" t="s">
         <v>14</v>
       </c>
@@ -10234,10 +9974,8 @@
         <v>27</v>
       </c>
       <c r="E657" s="7"/>
-      <c r="F657" s="7"/>
-      <c r="G657" s="7"/>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="16" t="s">
         <v>15</v>
       </c>
@@ -10251,10 +9989,8 @@
         <v>26</v>
       </c>
       <c r="E658" s="2"/>
-      <c r="F658" s="2"/>
-      <c r="G658" s="2"/>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="16" t="s">
         <v>15</v>
       </c>
@@ -10268,10 +10004,8 @@
         <v>26</v>
       </c>
       <c r="E659" s="2"/>
-      <c r="F659" s="2"/>
-      <c r="G659" s="2"/>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="16" t="s">
         <v>15</v>
       </c>
@@ -10285,10 +10019,8 @@
         <v>26</v>
       </c>
       <c r="E660" s="2"/>
-      <c r="F660" s="2"/>
-      <c r="G660" s="2"/>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="16" t="s">
         <v>15</v>
       </c>
@@ -10302,10 +10034,8 @@
         <v>26</v>
       </c>
       <c r="E661" s="2"/>
-      <c r="F661" s="2"/>
-      <c r="G661" s="2"/>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="16" t="s">
         <v>15</v>
       </c>
@@ -10319,10 +10049,8 @@
         <v>26</v>
       </c>
       <c r="E662" s="2"/>
-      <c r="F662" s="2"/>
-      <c r="G662" s="2"/>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="16" t="s">
         <v>15</v>
       </c>
@@ -10336,10 +10064,8 @@
         <v>26</v>
       </c>
       <c r="E663" s="2"/>
-      <c r="F663" s="2"/>
-      <c r="G663" s="2"/>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="16" t="s">
         <v>15</v>
       </c>
@@ -10353,10 +10079,8 @@
         <v>26</v>
       </c>
       <c r="E664" s="2"/>
-      <c r="F664" s="2"/>
-      <c r="G664" s="2"/>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="16" t="s">
         <v>15</v>
       </c>
@@ -10370,10 +10094,8 @@
         <v>26</v>
       </c>
       <c r="E665" s="2"/>
-      <c r="F665" s="2"/>
-      <c r="G665" s="2"/>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="16" t="s">
         <v>15</v>
       </c>
@@ -10387,10 +10109,8 @@
         <v>26</v>
       </c>
       <c r="E666" s="2"/>
-      <c r="F666" s="2"/>
-      <c r="G666" s="2"/>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="16" t="s">
         <v>15</v>
       </c>
@@ -10404,10 +10124,8 @@
         <v>26</v>
       </c>
       <c r="E667" s="2"/>
-      <c r="F667" s="2"/>
-      <c r="G667" s="2"/>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="16" t="s">
         <v>15</v>
       </c>
@@ -10421,10 +10139,8 @@
         <v>26</v>
       </c>
       <c r="E668" s="2"/>
-      <c r="F668" s="2"/>
-      <c r="G668" s="2"/>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="16" t="s">
         <v>15</v>
       </c>
@@ -10438,10 +10154,8 @@
         <v>26</v>
       </c>
       <c r="E669" s="2"/>
-      <c r="F669" s="2"/>
-      <c r="G669" s="2"/>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="16" t="s">
         <v>15</v>
       </c>
@@ -10455,10 +10169,8 @@
         <v>26</v>
       </c>
       <c r="E670" s="2"/>
-      <c r="F670" s="2"/>
-      <c r="G670" s="2"/>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="16" t="s">
         <v>15</v>
       </c>
@@ -10472,10 +10184,8 @@
         <v>26</v>
       </c>
       <c r="E671" s="2"/>
-      <c r="F671" s="2"/>
-      <c r="G671" s="2"/>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="16" t="s">
         <v>15</v>
       </c>
@@ -10489,10 +10199,8 @@
         <v>26</v>
       </c>
       <c r="E672" s="2"/>
-      <c r="F672" s="2"/>
-      <c r="G672" s="2"/>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="16" t="s">
         <v>15</v>
       </c>
@@ -10506,10 +10214,8 @@
         <v>26</v>
       </c>
       <c r="E673" s="2"/>
-      <c r="F673" s="2"/>
-      <c r="G673" s="2"/>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="16" t="s">
         <v>15</v>
       </c>
@@ -10523,10 +10229,8 @@
         <v>26</v>
       </c>
       <c r="E674" s="2"/>
-      <c r="F674" s="2"/>
-      <c r="G674" s="2"/>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="16" t="s">
         <v>15</v>
       </c>
@@ -10540,10 +10244,8 @@
         <v>26</v>
       </c>
       <c r="E675" s="2"/>
-      <c r="F675" s="2"/>
-      <c r="G675" s="2"/>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="16" t="s">
         <v>15</v>
       </c>
@@ -10557,10 +10259,8 @@
         <v>26</v>
       </c>
       <c r="E676" s="2"/>
-      <c r="F676" s="2"/>
-      <c r="G676" s="2"/>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="16" t="s">
         <v>15</v>
       </c>
@@ -10574,10 +10274,8 @@
         <v>26</v>
       </c>
       <c r="E677" s="2"/>
-      <c r="F677" s="2"/>
-      <c r="G677" s="2"/>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="16" t="s">
         <v>15</v>
       </c>
@@ -10591,10 +10289,8 @@
         <v>26</v>
       </c>
       <c r="E678" s="2"/>
-      <c r="F678" s="2"/>
-      <c r="G678" s="2"/>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="16" t="s">
         <v>15</v>
       </c>
@@ -10608,10 +10304,8 @@
         <v>27</v>
       </c>
       <c r="E679" s="2"/>
-      <c r="F679" s="2"/>
-      <c r="G679" s="2"/>
-    </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="16" t="s">
         <v>15</v>
       </c>
@@ -10625,10 +10319,8 @@
         <v>27</v>
       </c>
       <c r="E680" s="2"/>
-      <c r="F680" s="2"/>
-      <c r="G680" s="2"/>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="16" t="s">
         <v>15</v>
       </c>
@@ -10642,10 +10334,8 @@
         <v>27</v>
       </c>
       <c r="E681" s="2"/>
-      <c r="F681" s="2"/>
-      <c r="G681" s="2"/>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="16" t="s">
         <v>15</v>
       </c>
@@ -10659,10 +10349,8 @@
         <v>27</v>
       </c>
       <c r="E682" s="2"/>
-      <c r="F682" s="2"/>
-      <c r="G682" s="2"/>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="16" t="s">
         <v>15</v>
       </c>
@@ -10676,10 +10364,8 @@
         <v>27</v>
       </c>
       <c r="E683" s="2"/>
-      <c r="F683" s="2"/>
-      <c r="G683" s="2"/>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="16" t="s">
         <v>15</v>
       </c>
@@ -10693,10 +10379,8 @@
         <v>27</v>
       </c>
       <c r="E684" s="2"/>
-      <c r="F684" s="2"/>
-      <c r="G684" s="2"/>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="16" t="s">
         <v>15</v>
       </c>
@@ -10710,10 +10394,8 @@
         <v>27</v>
       </c>
       <c r="E685" s="2"/>
-      <c r="F685" s="2"/>
-      <c r="G685" s="2"/>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="16" t="s">
         <v>15</v>
       </c>
@@ -10727,10 +10409,8 @@
         <v>27</v>
       </c>
       <c r="E686" s="2"/>
-      <c r="F686" s="2"/>
-      <c r="G686" s="2"/>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="16" t="s">
         <v>15</v>
       </c>
@@ -10744,10 +10424,8 @@
         <v>27</v>
       </c>
       <c r="E687" s="2"/>
-      <c r="F687" s="2"/>
-      <c r="G687" s="2"/>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="16" t="s">
         <v>15</v>
       </c>
@@ -10761,10 +10439,8 @@
         <v>27</v>
       </c>
       <c r="E688" s="2"/>
-      <c r="F688" s="2"/>
-      <c r="G688" s="2"/>
-    </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="16" t="s">
         <v>15</v>
       </c>
@@ -10778,10 +10454,8 @@
         <v>27</v>
       </c>
       <c r="E689" s="2"/>
-      <c r="F689" s="2"/>
-      <c r="G689" s="2"/>
-    </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="16" t="s">
         <v>15</v>
       </c>
@@ -10795,10 +10469,8 @@
         <v>27</v>
       </c>
       <c r="E690" s="2"/>
-      <c r="F690" s="2"/>
-      <c r="G690" s="2"/>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="16" t="s">
         <v>15</v>
       </c>
@@ -10812,10 +10484,8 @@
         <v>27</v>
       </c>
       <c r="E691" s="2"/>
-      <c r="F691" s="2"/>
-      <c r="G691" s="2"/>
-    </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="16" t="s">
         <v>15</v>
       </c>
@@ -10829,10 +10499,8 @@
         <v>27</v>
       </c>
       <c r="E692" s="2"/>
-      <c r="F692" s="2"/>
-      <c r="G692" s="2"/>
-    </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="16" t="s">
         <v>15</v>
       </c>
@@ -10846,10 +10514,8 @@
         <v>27</v>
       </c>
       <c r="E693" s="2"/>
-      <c r="F693" s="2"/>
-      <c r="G693" s="2"/>
-    </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="16" t="s">
         <v>15</v>
       </c>
@@ -10863,10 +10529,8 @@
         <v>27</v>
       </c>
       <c r="E694" s="2"/>
-      <c r="F694" s="2"/>
-      <c r="G694" s="2"/>
-    </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="16" t="s">
         <v>15</v>
       </c>
@@ -10880,10 +10544,8 @@
         <v>27</v>
       </c>
       <c r="E695" s="2"/>
-      <c r="F695" s="2"/>
-      <c r="G695" s="2"/>
-    </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="16" t="s">
         <v>15</v>
       </c>
@@ -10897,10 +10559,8 @@
         <v>27</v>
       </c>
       <c r="E696" s="2"/>
-      <c r="F696" s="2"/>
-      <c r="G696" s="2"/>
-    </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="16" t="s">
         <v>15</v>
       </c>
@@ -10914,10 +10574,8 @@
         <v>27</v>
       </c>
       <c r="E697" s="2"/>
-      <c r="F697" s="2"/>
-      <c r="G697" s="2"/>
-    </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="16" t="s">
         <v>15</v>
       </c>
@@ -10931,10 +10589,8 @@
         <v>27</v>
       </c>
       <c r="E698" s="2"/>
-      <c r="F698" s="2"/>
-      <c r="G698" s="2"/>
-    </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="16" t="s">
         <v>15</v>
       </c>
@@ -10948,10 +10604,8 @@
         <v>27</v>
       </c>
       <c r="E699" s="2"/>
-      <c r="F699" s="2"/>
-      <c r="G699" s="2"/>
-    </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="16" t="s">
         <v>16</v>
       </c>
@@ -10965,7 +10619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="16" t="s">
         <v>16</v>
       </c>
@@ -10979,7 +10633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="16" t="s">
         <v>16</v>
       </c>
@@ -10993,7 +10647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="16" t="s">
         <v>16</v>
       </c>
@@ -11007,7 +10661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="16" t="s">
         <v>16</v>
       </c>
@@ -12141,7 +11795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="16" t="s">
         <v>17</v>
       </c>
@@ -12155,7 +11809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="16" t="s">
         <v>17</v>
       </c>
@@ -12169,7 +11823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="16" t="s">
         <v>17</v>
       </c>
@@ -12183,7 +11837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="16" t="s">
         <v>18</v>
       </c>
@@ -12197,10 +11851,8 @@
         <v>26</v>
       </c>
       <c r="E788" s="2"/>
-      <c r="F788" s="2"/>
-      <c r="G788" s="2"/>
-    </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="16" t="s">
         <v>18</v>
       </c>
@@ -12214,10 +11866,8 @@
         <v>26</v>
       </c>
       <c r="E789" s="2"/>
-      <c r="F789" s="2"/>
-      <c r="G789" s="2"/>
-    </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="16" t="s">
         <v>18</v>
       </c>
@@ -12231,10 +11881,8 @@
         <v>26</v>
       </c>
       <c r="E790" s="2"/>
-      <c r="F790" s="2"/>
-      <c r="G790" s="2"/>
-    </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="16" t="s">
         <v>18</v>
       </c>
@@ -12248,10 +11896,8 @@
         <v>26</v>
       </c>
       <c r="E791" s="2"/>
-      <c r="F791" s="2"/>
-      <c r="G791" s="2"/>
-    </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="16" t="s">
         <v>18</v>
       </c>
@@ -12265,10 +11911,8 @@
         <v>26</v>
       </c>
       <c r="E792" s="2"/>
-      <c r="F792" s="2"/>
-      <c r="G792" s="2"/>
-    </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="16" t="s">
         <v>18</v>
       </c>
@@ -12282,10 +11926,8 @@
         <v>26</v>
       </c>
       <c r="E793" s="2"/>
-      <c r="F793" s="2"/>
-      <c r="G793" s="2"/>
-    </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="16" t="s">
         <v>18</v>
       </c>
@@ -12299,10 +11941,8 @@
         <v>26</v>
       </c>
       <c r="E794" s="2"/>
-      <c r="F794" s="2"/>
-      <c r="G794" s="2"/>
-    </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="16" t="s">
         <v>18</v>
       </c>
@@ -12316,10 +11956,8 @@
         <v>26</v>
       </c>
       <c r="E795" s="2"/>
-      <c r="F795" s="2"/>
-      <c r="G795" s="2"/>
-    </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="16" t="s">
         <v>18</v>
       </c>
@@ -12333,10 +11971,8 @@
         <v>26</v>
       </c>
       <c r="E796" s="2"/>
-      <c r="F796" s="2"/>
-      <c r="G796" s="2"/>
-    </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="16" t="s">
         <v>18</v>
       </c>
@@ -12350,10 +11986,8 @@
         <v>26</v>
       </c>
       <c r="E797" s="2"/>
-      <c r="F797" s="2"/>
-      <c r="G797" s="2"/>
-    </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="16" t="s">
         <v>18</v>
       </c>
@@ -12367,10 +12001,8 @@
         <v>26</v>
       </c>
       <c r="E798" s="2"/>
-      <c r="F798" s="2"/>
-      <c r="G798" s="2"/>
-    </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="16" t="s">
         <v>18</v>
       </c>
@@ -12384,10 +12016,8 @@
         <v>26</v>
       </c>
       <c r="E799" s="2"/>
-      <c r="F799" s="2"/>
-      <c r="G799" s="2"/>
-    </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="16" t="s">
         <v>18</v>
       </c>
@@ -12401,10 +12031,8 @@
         <v>26</v>
       </c>
       <c r="E800" s="2"/>
-      <c r="F800" s="2"/>
-      <c r="G800" s="2"/>
-    </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="16" t="s">
         <v>18</v>
       </c>
@@ -12418,10 +12046,8 @@
         <v>26</v>
       </c>
       <c r="E801" s="2"/>
-      <c r="F801" s="2"/>
-      <c r="G801" s="2"/>
-    </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="16" t="s">
         <v>18</v>
       </c>
@@ -12435,10 +12061,8 @@
         <v>26</v>
       </c>
       <c r="E802" s="2"/>
-      <c r="F802" s="2"/>
-      <c r="G802" s="2"/>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="16" t="s">
         <v>18</v>
       </c>
@@ -12452,10 +12076,8 @@
         <v>26</v>
       </c>
       <c r="E803" s="2"/>
-      <c r="F803" s="2"/>
-      <c r="G803" s="2"/>
-    </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="16" t="s">
         <v>18</v>
       </c>
@@ -12469,10 +12091,8 @@
         <v>26</v>
       </c>
       <c r="E804" s="2"/>
-      <c r="F804" s="2"/>
-      <c r="G804" s="2"/>
-    </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="16" t="s">
         <v>18</v>
       </c>
@@ -12486,10 +12106,8 @@
         <v>26</v>
       </c>
       <c r="E805" s="2"/>
-      <c r="F805" s="2"/>
-      <c r="G805" s="2"/>
-    </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="16" t="s">
         <v>18</v>
       </c>
@@ -12503,10 +12121,8 @@
         <v>26</v>
       </c>
       <c r="E806" s="2"/>
-      <c r="F806" s="2"/>
-      <c r="G806" s="2"/>
-    </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="16" t="s">
         <v>18</v>
       </c>
@@ -12520,10 +12136,8 @@
         <v>26</v>
       </c>
       <c r="E807" s="2"/>
-      <c r="F807" s="2"/>
-      <c r="G807" s="2"/>
-    </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="16" t="s">
         <v>18</v>
       </c>
@@ -12537,10 +12151,8 @@
         <v>26</v>
       </c>
       <c r="E808" s="2"/>
-      <c r="F808" s="2"/>
-      <c r="G808" s="2"/>
-    </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="16" t="s">
         <v>18</v>
       </c>
@@ -12554,10 +12166,8 @@
         <v>26</v>
       </c>
       <c r="E809" s="7"/>
-      <c r="F809" s="7"/>
-      <c r="G809" s="7"/>
-    </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="16" t="s">
         <v>18</v>
       </c>
@@ -12571,10 +12181,8 @@
         <v>27</v>
       </c>
       <c r="E810" s="2"/>
-      <c r="F810" s="2"/>
-      <c r="G810" s="2"/>
-    </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="16" t="s">
         <v>18</v>
       </c>
@@ -12588,10 +12196,8 @@
         <v>27</v>
       </c>
       <c r="E811" s="2"/>
-      <c r="F811" s="2"/>
-      <c r="G811" s="2"/>
-    </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="16" t="s">
         <v>18</v>
       </c>
@@ -12605,10 +12211,8 @@
         <v>27</v>
       </c>
       <c r="E812" s="2"/>
-      <c r="F812" s="2"/>
-      <c r="G812" s="2"/>
-    </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="16" t="s">
         <v>18</v>
       </c>
@@ -12622,10 +12226,8 @@
         <v>27</v>
       </c>
       <c r="E813" s="2"/>
-      <c r="F813" s="2"/>
-      <c r="G813" s="2"/>
-    </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="16" t="s">
         <v>18</v>
       </c>
@@ -12639,10 +12241,8 @@
         <v>27</v>
       </c>
       <c r="E814" s="2"/>
-      <c r="F814" s="2"/>
-      <c r="G814" s="2"/>
-    </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="16" t="s">
         <v>18</v>
       </c>
@@ -12656,10 +12256,8 @@
         <v>27</v>
       </c>
       <c r="E815" s="2"/>
-      <c r="F815" s="2"/>
-      <c r="G815" s="2"/>
-    </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="16" t="s">
         <v>18</v>
       </c>
@@ -12673,10 +12271,8 @@
         <v>27</v>
       </c>
       <c r="E816" s="2"/>
-      <c r="F816" s="2"/>
-      <c r="G816" s="2"/>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="16" t="s">
         <v>18</v>
       </c>
@@ -12690,10 +12286,8 @@
         <v>27</v>
       </c>
       <c r="E817" s="2"/>
-      <c r="F817" s="2"/>
-      <c r="G817" s="2"/>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="16" t="s">
         <v>18</v>
       </c>
@@ -12707,10 +12301,8 @@
         <v>27</v>
       </c>
       <c r="E818" s="2"/>
-      <c r="F818" s="2"/>
-      <c r="G818" s="2"/>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="16" t="s">
         <v>18</v>
       </c>
@@ -12724,10 +12316,8 @@
         <v>27</v>
       </c>
       <c r="E819" s="2"/>
-      <c r="F819" s="2"/>
-      <c r="G819" s="2"/>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="16" t="s">
         <v>18</v>
       </c>
@@ -12741,10 +12331,8 @@
         <v>27</v>
       </c>
       <c r="E820" s="2"/>
-      <c r="F820" s="2"/>
-      <c r="G820" s="2"/>
-    </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="16" t="s">
         <v>18</v>
       </c>
@@ -12758,10 +12346,8 @@
         <v>27</v>
       </c>
       <c r="E821" s="2"/>
-      <c r="F821" s="2"/>
-      <c r="G821" s="2"/>
-    </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="16" t="s">
         <v>18</v>
       </c>
@@ -12775,10 +12361,8 @@
         <v>27</v>
       </c>
       <c r="E822" s="2"/>
-      <c r="F822" s="2"/>
-      <c r="G822" s="2"/>
-    </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="16" t="s">
         <v>18</v>
       </c>
@@ -12792,10 +12376,8 @@
         <v>27</v>
       </c>
       <c r="E823" s="2"/>
-      <c r="F823" s="2"/>
-      <c r="G823" s="2"/>
-    </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="16" t="s">
         <v>18</v>
       </c>
@@ -12809,10 +12391,8 @@
         <v>27</v>
       </c>
       <c r="E824" s="2"/>
-      <c r="F824" s="2"/>
-      <c r="G824" s="2"/>
-    </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="16" t="s">
         <v>18</v>
       </c>
@@ -12826,10 +12406,8 @@
         <v>27</v>
       </c>
       <c r="E825" s="2"/>
-      <c r="F825" s="2"/>
-      <c r="G825" s="2"/>
-    </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="16" t="s">
         <v>18</v>
       </c>
@@ -12843,10 +12421,8 @@
         <v>27</v>
       </c>
       <c r="E826" s="2"/>
-      <c r="F826" s="2"/>
-      <c r="G826" s="2"/>
-    </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="16" t="s">
         <v>18</v>
       </c>
@@ -12860,10 +12436,8 @@
         <v>27</v>
       </c>
       <c r="E827" s="2"/>
-      <c r="F827" s="2"/>
-      <c r="G827" s="2"/>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="16" t="s">
         <v>18</v>
       </c>
@@ -12877,10 +12451,8 @@
         <v>27</v>
       </c>
       <c r="E828" s="2"/>
-      <c r="F828" s="2"/>
-      <c r="G828" s="2"/>
-    </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="16" t="s">
         <v>18</v>
       </c>
@@ -12894,10 +12466,8 @@
         <v>27</v>
       </c>
       <c r="E829" s="2"/>
-      <c r="F829" s="2"/>
-      <c r="G829" s="2"/>
-    </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="16" t="s">
         <v>18</v>
       </c>
@@ -12911,10 +12481,8 @@
         <v>27</v>
       </c>
       <c r="E830" s="2"/>
-      <c r="F830" s="2"/>
-      <c r="G830" s="2"/>
-    </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="16" t="s">
         <v>18</v>
       </c>
@@ -12928,10 +12496,8 @@
         <v>27</v>
       </c>
       <c r="E831" s="7"/>
-      <c r="F831" s="7"/>
-      <c r="G831" s="7"/>
-    </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="16" t="s">
         <v>19</v>
       </c>
@@ -12945,10 +12511,8 @@
         <v>26</v>
       </c>
       <c r="E832" s="2"/>
-      <c r="F832" s="2"/>
-      <c r="G832" s="2"/>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="16" t="s">
         <v>19</v>
       </c>
@@ -12962,10 +12526,8 @@
         <v>26</v>
       </c>
       <c r="E833" s="2"/>
-      <c r="F833" s="2"/>
-      <c r="G833" s="2"/>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="16" t="s">
         <v>19</v>
       </c>
@@ -12979,10 +12541,8 @@
         <v>26</v>
       </c>
       <c r="E834" s="2"/>
-      <c r="F834" s="2"/>
-      <c r="G834" s="2"/>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="16" t="s">
         <v>19</v>
       </c>
@@ -12996,10 +12556,8 @@
         <v>26</v>
       </c>
       <c r="E835" s="2"/>
-      <c r="F835" s="2"/>
-      <c r="G835" s="2"/>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="16" t="s">
         <v>19</v>
       </c>
@@ -13013,10 +12571,8 @@
         <v>26</v>
       </c>
       <c r="E836" s="2"/>
-      <c r="F836" s="2"/>
-      <c r="G836" s="2"/>
-    </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="16" t="s">
         <v>19</v>
       </c>
@@ -13030,10 +12586,8 @@
         <v>26</v>
       </c>
       <c r="E837" s="2"/>
-      <c r="F837" s="2"/>
-      <c r="G837" s="2"/>
-    </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="16" t="s">
         <v>19</v>
       </c>
@@ -13047,10 +12601,8 @@
         <v>26</v>
       </c>
       <c r="E838" s="2"/>
-      <c r="F838" s="2"/>
-      <c r="G838" s="2"/>
-    </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="16" t="s">
         <v>19</v>
       </c>
@@ -13064,10 +12616,8 @@
         <v>26</v>
       </c>
       <c r="E839" s="2"/>
-      <c r="F839" s="2"/>
-      <c r="G839" s="2"/>
-    </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="16" t="s">
         <v>19</v>
       </c>
@@ -13081,10 +12631,8 @@
         <v>26</v>
       </c>
       <c r="E840" s="2"/>
-      <c r="F840" s="2"/>
-      <c r="G840" s="2"/>
-    </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="16" t="s">
         <v>19</v>
       </c>
@@ -13098,10 +12646,8 @@
         <v>26</v>
       </c>
       <c r="E841" s="2"/>
-      <c r="F841" s="2"/>
-      <c r="G841" s="2"/>
-    </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="16" t="s">
         <v>19</v>
       </c>
@@ -13115,10 +12661,8 @@
         <v>26</v>
       </c>
       <c r="E842" s="2"/>
-      <c r="F842" s="2"/>
-      <c r="G842" s="2"/>
-    </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="16" t="s">
         <v>19</v>
       </c>
@@ -13132,10 +12676,8 @@
         <v>26</v>
       </c>
       <c r="E843" s="2"/>
-      <c r="F843" s="2"/>
-      <c r="G843" s="2"/>
-    </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="16" t="s">
         <v>19</v>
       </c>
@@ -13149,10 +12691,8 @@
         <v>26</v>
       </c>
       <c r="E844" s="2"/>
-      <c r="F844" s="2"/>
-      <c r="G844" s="2"/>
-    </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="16" t="s">
         <v>19</v>
       </c>
@@ -13166,10 +12706,8 @@
         <v>26</v>
       </c>
       <c r="E845" s="2"/>
-      <c r="F845" s="2"/>
-      <c r="G845" s="2"/>
-    </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="16" t="s">
         <v>19</v>
       </c>
@@ -13183,10 +12721,8 @@
         <v>26</v>
       </c>
       <c r="E846" s="2"/>
-      <c r="F846" s="2"/>
-      <c r="G846" s="2"/>
-    </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="16" t="s">
         <v>19</v>
       </c>
@@ -13200,10 +12736,8 @@
         <v>26</v>
       </c>
       <c r="E847" s="2"/>
-      <c r="F847" s="2"/>
-      <c r="G847" s="2"/>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="16" t="s">
         <v>19</v>
       </c>
@@ -13217,10 +12751,8 @@
         <v>26</v>
       </c>
       <c r="E848" s="2"/>
-      <c r="F848" s="2"/>
-      <c r="G848" s="2"/>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="16" t="s">
         <v>19</v>
       </c>
@@ -13234,10 +12766,8 @@
         <v>26</v>
       </c>
       <c r="E849" s="2"/>
-      <c r="F849" s="2"/>
-      <c r="G849" s="2"/>
-    </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="16" t="s">
         <v>19</v>
       </c>
@@ -13251,10 +12781,8 @@
         <v>26</v>
       </c>
       <c r="E850" s="2"/>
-      <c r="F850" s="2"/>
-      <c r="G850" s="2"/>
-    </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="16" t="s">
         <v>19</v>
       </c>
@@ -13268,10 +12796,8 @@
         <v>26</v>
       </c>
       <c r="E851" s="2"/>
-      <c r="F851" s="2"/>
-      <c r="G851" s="2"/>
-    </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="16" t="s">
         <v>19</v>
       </c>
@@ -13285,10 +12811,8 @@
         <v>26</v>
       </c>
       <c r="E852" s="2"/>
-      <c r="F852" s="2"/>
-      <c r="G852" s="2"/>
-    </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="16" t="s">
         <v>19</v>
       </c>
@@ -13302,10 +12826,8 @@
         <v>26</v>
       </c>
       <c r="E853" s="7"/>
-      <c r="F853" s="7"/>
-      <c r="G853" s="7"/>
-    </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="16" t="s">
         <v>19</v>
       </c>
@@ -13319,10 +12841,8 @@
         <v>27</v>
       </c>
       <c r="E854" s="2"/>
-      <c r="F854" s="2"/>
-      <c r="G854" s="2"/>
-    </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="16" t="s">
         <v>19</v>
       </c>
@@ -13336,10 +12856,8 @@
         <v>27</v>
       </c>
       <c r="E855" s="2"/>
-      <c r="F855" s="2"/>
-      <c r="G855" s="2"/>
-    </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="16" t="s">
         <v>19</v>
       </c>
@@ -13353,10 +12871,8 @@
         <v>27</v>
       </c>
       <c r="E856" s="2"/>
-      <c r="F856" s="2"/>
-      <c r="G856" s="2"/>
-    </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="16" t="s">
         <v>19</v>
       </c>
@@ -13370,10 +12886,8 @@
         <v>27</v>
       </c>
       <c r="E857" s="2"/>
-      <c r="F857" s="2"/>
-      <c r="G857" s="2"/>
-    </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="16" t="s">
         <v>19</v>
       </c>
@@ -13387,10 +12901,8 @@
         <v>27</v>
       </c>
       <c r="E858" s="2"/>
-      <c r="F858" s="2"/>
-      <c r="G858" s="2"/>
-    </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="16" t="s">
         <v>19</v>
       </c>
@@ -13404,10 +12916,8 @@
         <v>27</v>
       </c>
       <c r="E859" s="2"/>
-      <c r="F859" s="2"/>
-      <c r="G859" s="2"/>
-    </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="16" t="s">
         <v>19</v>
       </c>
@@ -13421,10 +12931,8 @@
         <v>27</v>
       </c>
       <c r="E860" s="2"/>
-      <c r="F860" s="2"/>
-      <c r="G860" s="2"/>
-    </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="16" t="s">
         <v>19</v>
       </c>
@@ -13438,10 +12946,8 @@
         <v>27</v>
       </c>
       <c r="E861" s="2"/>
-      <c r="F861" s="2"/>
-      <c r="G861" s="2"/>
-    </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="16" t="s">
         <v>19</v>
       </c>
@@ -13455,10 +12961,8 @@
         <v>27</v>
       </c>
       <c r="E862" s="2"/>
-      <c r="F862" s="2"/>
-      <c r="G862" s="2"/>
-    </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="16" t="s">
         <v>19</v>
       </c>
@@ -13472,10 +12976,8 @@
         <v>27</v>
       </c>
       <c r="E863" s="2"/>
-      <c r="F863" s="2"/>
-      <c r="G863" s="2"/>
-    </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="16" t="s">
         <v>19</v>
       </c>
@@ -13489,10 +12991,8 @@
         <v>27</v>
       </c>
       <c r="E864" s="2"/>
-      <c r="F864" s="2"/>
-      <c r="G864" s="2"/>
-    </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="16" t="s">
         <v>19</v>
       </c>
@@ -13506,10 +13006,8 @@
         <v>27</v>
       </c>
       <c r="E865" s="2"/>
-      <c r="F865" s="2"/>
-      <c r="G865" s="2"/>
-    </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="16" t="s">
         <v>19</v>
       </c>
@@ -13523,10 +13021,8 @@
         <v>27</v>
       </c>
       <c r="E866" s="2"/>
-      <c r="F866" s="2"/>
-      <c r="G866" s="2"/>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="16" t="s">
         <v>19</v>
       </c>
@@ -13540,10 +13036,8 @@
         <v>27</v>
       </c>
       <c r="E867" s="2"/>
-      <c r="F867" s="2"/>
-      <c r="G867" s="2"/>
-    </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="16" t="s">
         <v>19</v>
       </c>
@@ -13557,10 +13051,8 @@
         <v>27</v>
       </c>
       <c r="E868" s="2"/>
-      <c r="F868" s="2"/>
-      <c r="G868" s="2"/>
-    </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="16" t="s">
         <v>19</v>
       </c>
@@ -13574,10 +13066,8 @@
         <v>27</v>
       </c>
       <c r="E869" s="2"/>
-      <c r="F869" s="2"/>
-      <c r="G869" s="2"/>
-    </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="16" t="s">
         <v>19</v>
       </c>
@@ -13591,10 +13081,8 @@
         <v>27</v>
       </c>
       <c r="E870" s="2"/>
-      <c r="F870" s="2"/>
-      <c r="G870" s="2"/>
-    </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="16" t="s">
         <v>19</v>
       </c>
@@ -13608,10 +13096,8 @@
         <v>27</v>
       </c>
       <c r="E871" s="2"/>
-      <c r="F871" s="2"/>
-      <c r="G871" s="2"/>
-    </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="16" t="s">
         <v>19</v>
       </c>
@@ -13625,10 +13111,8 @@
         <v>27</v>
       </c>
       <c r="E872" s="2"/>
-      <c r="F872" s="2"/>
-      <c r="G872" s="2"/>
-    </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="16" t="s">
         <v>19</v>
       </c>
@@ -13642,10 +13126,8 @@
         <v>27</v>
       </c>
       <c r="E873" s="2"/>
-      <c r="F873" s="2"/>
-      <c r="G873" s="2"/>
-    </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="16" t="s">
         <v>19</v>
       </c>
@@ -13659,10 +13141,8 @@
         <v>27</v>
       </c>
       <c r="E874" s="2"/>
-      <c r="F874" s="2"/>
-      <c r="G874" s="2"/>
-    </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="16" t="s">
         <v>19</v>
       </c>
@@ -13676,10 +13156,8 @@
         <v>27</v>
       </c>
       <c r="E875" s="5"/>
-      <c r="F875" s="5"/>
-      <c r="G875" s="5"/>
-    </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="16" t="s">
         <v>20</v>
       </c>
@@ -13693,10 +13171,8 @@
         <v>26</v>
       </c>
       <c r="E876" s="2"/>
-      <c r="F876" s="2"/>
-      <c r="G876" s="2"/>
-    </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="16" t="s">
         <v>20</v>
       </c>
@@ -13710,10 +13186,8 @@
         <v>26</v>
       </c>
       <c r="E877" s="2"/>
-      <c r="F877" s="2"/>
-      <c r="G877" s="2"/>
-    </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="16" t="s">
         <v>20</v>
       </c>
@@ -13727,10 +13201,8 @@
         <v>26</v>
       </c>
       <c r="E878" s="2"/>
-      <c r="F878" s="2"/>
-      <c r="G878" s="2"/>
-    </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="16" t="s">
         <v>20</v>
       </c>
@@ -13744,10 +13216,8 @@
         <v>26</v>
       </c>
       <c r="E879" s="2"/>
-      <c r="F879" s="2"/>
-      <c r="G879" s="2"/>
-    </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="16" t="s">
         <v>20</v>
       </c>
@@ -13761,10 +13231,8 @@
         <v>26</v>
       </c>
       <c r="E880" s="2"/>
-      <c r="F880" s="2"/>
-      <c r="G880" s="2"/>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="16" t="s">
         <v>20</v>
       </c>
@@ -13778,10 +13246,8 @@
         <v>26</v>
       </c>
       <c r="E881" s="2"/>
-      <c r="F881" s="2"/>
-      <c r="G881" s="2"/>
-    </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="16" t="s">
         <v>20</v>
       </c>
@@ -13795,10 +13261,8 @@
         <v>26</v>
       </c>
       <c r="E882" s="2"/>
-      <c r="F882" s="2"/>
-      <c r="G882" s="2"/>
-    </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="16" t="s">
         <v>20</v>
       </c>
@@ -13812,10 +13276,8 @@
         <v>26</v>
       </c>
       <c r="E883" s="2"/>
-      <c r="F883" s="2"/>
-      <c r="G883" s="2"/>
-    </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="16" t="s">
         <v>20</v>
       </c>
@@ -13829,10 +13291,8 @@
         <v>26</v>
       </c>
       <c r="E884" s="2"/>
-      <c r="F884" s="2"/>
-      <c r="G884" s="2"/>
-    </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="16" t="s">
         <v>20</v>
       </c>
@@ -13846,10 +13306,8 @@
         <v>26</v>
       </c>
       <c r="E885" s="2"/>
-      <c r="F885" s="2"/>
-      <c r="G885" s="2"/>
-    </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="16" t="s">
         <v>20</v>
       </c>
@@ -13863,10 +13321,8 @@
         <v>26</v>
       </c>
       <c r="E886" s="2"/>
-      <c r="F886" s="2"/>
-      <c r="G886" s="2"/>
-    </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="16" t="s">
         <v>20</v>
       </c>
@@ -13880,10 +13336,8 @@
         <v>26</v>
       </c>
       <c r="E887" s="2"/>
-      <c r="F887" s="2"/>
-      <c r="G887" s="2"/>
-    </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="16" t="s">
         <v>20</v>
       </c>
@@ -13897,10 +13351,8 @@
         <v>26</v>
       </c>
       <c r="E888" s="2"/>
-      <c r="F888" s="2"/>
-      <c r="G888" s="2"/>
-    </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="16" t="s">
         <v>20</v>
       </c>
@@ -13914,10 +13366,8 @@
         <v>26</v>
       </c>
       <c r="E889" s="2"/>
-      <c r="F889" s="2"/>
-      <c r="G889" s="2"/>
-    </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="16" t="s">
         <v>20</v>
       </c>
@@ -13931,10 +13381,8 @@
         <v>26</v>
       </c>
       <c r="E890" s="2"/>
-      <c r="F890" s="2"/>
-      <c r="G890" s="2"/>
-    </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="16" t="s">
         <v>20</v>
       </c>
@@ -13948,10 +13396,8 @@
         <v>26</v>
       </c>
       <c r="E891" s="2"/>
-      <c r="F891" s="2"/>
-      <c r="G891" s="2"/>
-    </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="16" t="s">
         <v>20</v>
       </c>
@@ -13965,10 +13411,8 @@
         <v>26</v>
       </c>
       <c r="E892" s="2"/>
-      <c r="F892" s="2"/>
-      <c r="G892" s="2"/>
-    </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="16" t="s">
         <v>20</v>
       </c>
@@ -13982,10 +13426,8 @@
         <v>26</v>
       </c>
       <c r="E893" s="2"/>
-      <c r="F893" s="2"/>
-      <c r="G893" s="2"/>
-    </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="16" t="s">
         <v>20</v>
       </c>
@@ -13999,10 +13441,8 @@
         <v>26</v>
       </c>
       <c r="E894" s="2"/>
-      <c r="F894" s="2"/>
-      <c r="G894" s="2"/>
-    </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="16" t="s">
         <v>20</v>
       </c>
@@ -14016,10 +13456,8 @@
         <v>26</v>
       </c>
       <c r="E895" s="2"/>
-      <c r="F895" s="2"/>
-      <c r="G895" s="2"/>
-    </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="16" t="s">
         <v>20</v>
       </c>
@@ -14033,10 +13471,8 @@
         <v>26</v>
       </c>
       <c r="E896" s="2"/>
-      <c r="F896" s="2"/>
-      <c r="G896" s="2"/>
-    </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="16" t="s">
         <v>20</v>
       </c>
@@ -14050,10 +13486,8 @@
         <v>26</v>
       </c>
       <c r="E897" s="7"/>
-      <c r="F897" s="7"/>
-      <c r="G897" s="7"/>
-    </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="16" t="s">
         <v>20</v>
       </c>
@@ -14067,10 +13501,8 @@
         <v>27</v>
       </c>
       <c r="E898" s="2"/>
-      <c r="F898" s="2"/>
-      <c r="G898" s="2"/>
-    </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="16" t="s">
         <v>20</v>
       </c>
@@ -14084,10 +13516,8 @@
         <v>27</v>
       </c>
       <c r="E899" s="2"/>
-      <c r="F899" s="2"/>
-      <c r="G899" s="2"/>
-    </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="16" t="s">
         <v>20</v>
       </c>
@@ -14101,10 +13531,8 @@
         <v>27</v>
       </c>
       <c r="E900" s="2"/>
-      <c r="F900" s="2"/>
-      <c r="G900" s="2"/>
-    </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="16" t="s">
         <v>20</v>
       </c>
@@ -14118,10 +13546,8 @@
         <v>27</v>
       </c>
       <c r="E901" s="2"/>
-      <c r="F901" s="2"/>
-      <c r="G901" s="2"/>
-    </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="16" t="s">
         <v>20</v>
       </c>
@@ -14135,10 +13561,8 @@
         <v>27</v>
       </c>
       <c r="E902" s="2"/>
-      <c r="F902" s="2"/>
-      <c r="G902" s="2"/>
-    </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="16" t="s">
         <v>20</v>
       </c>
@@ -14152,10 +13576,8 @@
         <v>27</v>
       </c>
       <c r="E903" s="2"/>
-      <c r="F903" s="2"/>
-      <c r="G903" s="2"/>
-    </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="16" t="s">
         <v>20</v>
       </c>
@@ -14169,10 +13591,8 @@
         <v>27</v>
       </c>
       <c r="E904" s="2"/>
-      <c r="F904" s="2"/>
-      <c r="G904" s="2"/>
-    </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="16" t="s">
         <v>20</v>
       </c>
@@ -14186,10 +13606,8 @@
         <v>27</v>
       </c>
       <c r="E905" s="2"/>
-      <c r="F905" s="2"/>
-      <c r="G905" s="2"/>
-    </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="16" t="s">
         <v>20</v>
       </c>
@@ -14203,10 +13621,8 @@
         <v>27</v>
       </c>
       <c r="E906" s="2"/>
-      <c r="F906" s="2"/>
-      <c r="G906" s="2"/>
-    </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="16" t="s">
         <v>20</v>
       </c>
@@ -14220,10 +13636,8 @@
         <v>27</v>
       </c>
       <c r="E907" s="2"/>
-      <c r="F907" s="2"/>
-      <c r="G907" s="2"/>
-    </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="16" t="s">
         <v>20</v>
       </c>
@@ -14237,10 +13651,8 @@
         <v>27</v>
       </c>
       <c r="E908" s="2"/>
-      <c r="F908" s="2"/>
-      <c r="G908" s="2"/>
-    </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="16" t="s">
         <v>20</v>
       </c>
@@ -14254,10 +13666,8 @@
         <v>27</v>
       </c>
       <c r="E909" s="2"/>
-      <c r="F909" s="2"/>
-      <c r="G909" s="2"/>
-    </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="16" t="s">
         <v>20</v>
       </c>
@@ -14271,10 +13681,8 @@
         <v>27</v>
       </c>
       <c r="E910" s="2"/>
-      <c r="F910" s="2"/>
-      <c r="G910" s="2"/>
-    </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="16" t="s">
         <v>20</v>
       </c>
@@ -14288,10 +13696,8 @@
         <v>27</v>
       </c>
       <c r="E911" s="2"/>
-      <c r="F911" s="2"/>
-      <c r="G911" s="2"/>
-    </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="16" t="s">
         <v>20</v>
       </c>
@@ -14305,10 +13711,8 @@
         <v>27</v>
       </c>
       <c r="E912" s="2"/>
-      <c r="F912" s="2"/>
-      <c r="G912" s="2"/>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="16" t="s">
         <v>20</v>
       </c>
@@ -14322,10 +13726,8 @@
         <v>27</v>
       </c>
       <c r="E913" s="2"/>
-      <c r="F913" s="2"/>
-      <c r="G913" s="2"/>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="16" t="s">
         <v>20</v>
       </c>
@@ -14339,10 +13741,8 @@
         <v>27</v>
       </c>
       <c r="E914" s="2"/>
-      <c r="F914" s="2"/>
-      <c r="G914" s="2"/>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="16" t="s">
         <v>20</v>
       </c>
@@ -14356,10 +13756,8 @@
         <v>27</v>
       </c>
       <c r="E915" s="2"/>
-      <c r="F915" s="2"/>
-      <c r="G915" s="2"/>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="16" t="s">
         <v>20</v>
       </c>
@@ -14373,10 +13771,8 @@
         <v>27</v>
       </c>
       <c r="E916" s="2"/>
-      <c r="F916" s="2"/>
-      <c r="G916" s="2"/>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="16" t="s">
         <v>20</v>
       </c>
@@ -14390,10 +13786,8 @@
         <v>27</v>
       </c>
       <c r="E917" s="2"/>
-      <c r="F917" s="2"/>
-      <c r="G917" s="2"/>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="16" t="s">
         <v>20</v>
       </c>
@@ -14407,10 +13801,8 @@
         <v>27</v>
       </c>
       <c r="E918" s="2"/>
-      <c r="F918" s="2"/>
-      <c r="G918" s="2"/>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="16" t="s">
         <v>20</v>
       </c>
@@ -14424,10 +13816,8 @@
         <v>27</v>
       </c>
       <c r="E919" s="7"/>
-      <c r="F919" s="7"/>
-      <c r="G919" s="7"/>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="16" t="s">
         <v>21</v>
       </c>
@@ -14440,11 +13830,9 @@
       <c r="D920" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E920" s="2"/>
-      <c r="F920" s="2"/>
-      <c r="G920" s="12"/>
-    </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E920" s="12"/>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="16" t="s">
         <v>21</v>
       </c>
@@ -14457,11 +13845,9 @@
       <c r="D921" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E921" s="2"/>
-      <c r="F921" s="2"/>
-      <c r="G921" s="12"/>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E921" s="12"/>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="16" t="s">
         <v>21</v>
       </c>
@@ -14474,11 +13860,9 @@
       <c r="D922" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E922" s="2"/>
-      <c r="F922" s="2"/>
-      <c r="G922" s="12"/>
-    </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E922" s="12"/>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="16" t="s">
         <v>21</v>
       </c>
@@ -14491,11 +13875,9 @@
       <c r="D923" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E923" s="2"/>
-      <c r="F923" s="2"/>
-      <c r="G923" s="12"/>
-    </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E923" s="12"/>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="16" t="s">
         <v>21</v>
       </c>
@@ -14508,11 +13890,9 @@
       <c r="D924" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E924" s="2"/>
-      <c r="F924" s="2"/>
-      <c r="G924" s="12"/>
-    </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E924" s="12"/>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="16" t="s">
         <v>21</v>
       </c>
@@ -14525,11 +13905,9 @@
       <c r="D925" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E925" s="2"/>
-      <c r="F925" s="2"/>
-      <c r="G925" s="12"/>
-    </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E925" s="12"/>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="16" t="s">
         <v>21</v>
       </c>
@@ -14542,11 +13920,9 @@
       <c r="D926" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E926" s="2"/>
-      <c r="F926" s="2"/>
-      <c r="G926" s="12"/>
-    </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E926" s="12"/>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="16" t="s">
         <v>21</v>
       </c>
@@ -14559,11 +13935,9 @@
       <c r="D927" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E927" s="2"/>
-      <c r="F927" s="2"/>
-      <c r="G927" s="12"/>
-    </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E927" s="12"/>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="16" t="s">
         <v>21</v>
       </c>
@@ -14576,11 +13950,9 @@
       <c r="D928" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E928" s="2"/>
-      <c r="F928" s="2"/>
-      <c r="G928" s="12"/>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E928" s="12"/>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="16" t="s">
         <v>21</v>
       </c>
@@ -14593,11 +13965,9 @@
       <c r="D929" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E929" s="2"/>
-      <c r="F929" s="2"/>
-      <c r="G929" s="12"/>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E929" s="12"/>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="16" t="s">
         <v>21</v>
       </c>
@@ -14610,11 +13980,9 @@
       <c r="D930" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E930" s="2"/>
-      <c r="F930" s="2"/>
-      <c r="G930" s="12"/>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E930" s="12"/>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="16" t="s">
         <v>21</v>
       </c>
@@ -14627,11 +13995,9 @@
       <c r="D931" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E931" s="2"/>
-      <c r="F931" s="2"/>
-      <c r="G931" s="12"/>
-    </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E931" s="12"/>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="16" t="s">
         <v>21</v>
       </c>
@@ -14645,10 +14011,8 @@
         <v>26</v>
       </c>
       <c r="E932" s="12"/>
-      <c r="F932" s="12"/>
-      <c r="G932" s="12"/>
-    </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="16" t="s">
         <v>21</v>
       </c>
@@ -14662,10 +14026,8 @@
         <v>26</v>
       </c>
       <c r="E933" s="12"/>
-      <c r="F933" s="12"/>
-      <c r="G933" s="12"/>
-    </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="16" t="s">
         <v>21</v>
       </c>
@@ -14679,10 +14041,8 @@
         <v>26</v>
       </c>
       <c r="E934" s="12"/>
-      <c r="F934" s="12"/>
-      <c r="G934" s="12"/>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="16" t="s">
         <v>21</v>
       </c>
@@ -14696,10 +14056,8 @@
         <v>26</v>
       </c>
       <c r="E935" s="12"/>
-      <c r="F935" s="12"/>
-      <c r="G935" s="12"/>
-    </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="16" t="s">
         <v>21</v>
       </c>
@@ -14713,10 +14071,8 @@
         <v>26</v>
       </c>
       <c r="E936" s="12"/>
-      <c r="F936" s="12"/>
-      <c r="G936" s="12"/>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="16" t="s">
         <v>21</v>
       </c>
@@ -14730,10 +14086,8 @@
         <v>26</v>
       </c>
       <c r="E937" s="12"/>
-      <c r="F937" s="12"/>
-      <c r="G937" s="12"/>
-    </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="16" t="s">
         <v>21</v>
       </c>
@@ -14747,10 +14101,8 @@
         <v>26</v>
       </c>
       <c r="E938" s="12"/>
-      <c r="F938" s="12"/>
-      <c r="G938" s="12"/>
-    </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="16" t="s">
         <v>21</v>
       </c>
@@ -14764,10 +14116,8 @@
         <v>26</v>
       </c>
       <c r="E939" s="12"/>
-      <c r="F939" s="12"/>
-      <c r="G939" s="12"/>
-    </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="16" t="s">
         <v>21</v>
       </c>
@@ -14781,10 +14131,8 @@
         <v>26</v>
       </c>
       <c r="E940" s="12"/>
-      <c r="F940" s="12"/>
-      <c r="G940" s="12"/>
-    </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="16" t="s">
         <v>21</v>
       </c>
@@ -14798,10 +14146,8 @@
         <v>26</v>
       </c>
       <c r="E941" s="7"/>
-      <c r="F941" s="7"/>
-      <c r="G941" s="7"/>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="16" t="s">
         <v>21</v>
       </c>
@@ -14815,10 +14161,8 @@
         <v>27</v>
       </c>
       <c r="E942" s="12"/>
-      <c r="F942" s="12"/>
-      <c r="G942" s="12"/>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="16" t="s">
         <v>21</v>
       </c>
@@ -14832,10 +14176,8 @@
         <v>27</v>
       </c>
       <c r="E943" s="12"/>
-      <c r="F943" s="12"/>
-      <c r="G943" s="12"/>
-    </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="16" t="s">
         <v>21</v>
       </c>
@@ -14849,10 +14191,8 @@
         <v>27</v>
       </c>
       <c r="E944" s="12"/>
-      <c r="F944" s="12"/>
-      <c r="G944" s="12"/>
-    </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="16" t="s">
         <v>21</v>
       </c>
@@ -14866,10 +14206,8 @@
         <v>27</v>
       </c>
       <c r="E945" s="12"/>
-      <c r="F945" s="12"/>
-      <c r="G945" s="12"/>
-    </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="16" t="s">
         <v>21</v>
       </c>
@@ -14883,10 +14221,8 @@
         <v>27</v>
       </c>
       <c r="E946" s="12"/>
-      <c r="F946" s="12"/>
-      <c r="G946" s="12"/>
-    </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="16" t="s">
         <v>21</v>
       </c>
@@ -14900,10 +14236,8 @@
         <v>27</v>
       </c>
       <c r="E947" s="12"/>
-      <c r="F947" s="12"/>
-      <c r="G947" s="12"/>
-    </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="16" t="s">
         <v>21</v>
       </c>
@@ -14917,10 +14251,8 @@
         <v>27</v>
       </c>
       <c r="E948" s="12"/>
-      <c r="F948" s="12"/>
-      <c r="G948" s="12"/>
-    </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="16" t="s">
         <v>21</v>
       </c>
@@ -14934,10 +14266,8 @@
         <v>27</v>
       </c>
       <c r="E949" s="5"/>
-      <c r="F949" s="5"/>
-      <c r="G949" s="5"/>
-    </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="16" t="s">
         <v>21</v>
       </c>
@@ -14951,10 +14281,8 @@
         <v>27</v>
       </c>
       <c r="E950" s="12"/>
-      <c r="F950" s="12"/>
-      <c r="G950" s="12"/>
-    </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="16" t="s">
         <v>21</v>
       </c>
@@ -14968,10 +14296,8 @@
         <v>27</v>
       </c>
       <c r="E951" s="12"/>
-      <c r="F951" s="12"/>
-      <c r="G951" s="12"/>
-    </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="16" t="s">
         <v>21</v>
       </c>
@@ -14985,10 +14311,8 @@
         <v>27</v>
       </c>
       <c r="E952" s="12"/>
-      <c r="F952" s="12"/>
-      <c r="G952" s="12"/>
-    </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="16" t="s">
         <v>21</v>
       </c>
@@ -15002,10 +14326,8 @@
         <v>27</v>
       </c>
       <c r="E953" s="12"/>
-      <c r="F953" s="12"/>
-      <c r="G953" s="12"/>
-    </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="16" t="s">
         <v>21</v>
       </c>
@@ -15019,10 +14341,8 @@
         <v>27</v>
       </c>
       <c r="E954" s="12"/>
-      <c r="F954" s="12"/>
-      <c r="G954" s="12"/>
-    </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="16" t="s">
         <v>21</v>
       </c>
@@ -15036,10 +14356,8 @@
         <v>27</v>
       </c>
       <c r="E955" s="12"/>
-      <c r="F955" s="12"/>
-      <c r="G955" s="12"/>
-    </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="16" t="s">
         <v>21</v>
       </c>
@@ -15053,10 +14371,8 @@
         <v>27</v>
       </c>
       <c r="E956" s="12"/>
-      <c r="F956" s="12"/>
-      <c r="G956" s="12"/>
-    </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="16" t="s">
         <v>21</v>
       </c>
@@ -15070,10 +14386,8 @@
         <v>27</v>
       </c>
       <c r="E957" s="12"/>
-      <c r="F957" s="12"/>
-      <c r="G957" s="12"/>
-    </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="16" t="s">
         <v>21</v>
       </c>
@@ -15087,10 +14401,8 @@
         <v>27</v>
       </c>
       <c r="E958" s="12"/>
-      <c r="F958" s="12"/>
-      <c r="G958" s="12"/>
-    </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="16" t="s">
         <v>21</v>
       </c>
@@ -15104,10 +14416,8 @@
         <v>27</v>
       </c>
       <c r="E959" s="12"/>
-      <c r="F959" s="12"/>
-      <c r="G959" s="12"/>
-    </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="16" t="s">
         <v>21</v>
       </c>
@@ -15121,10 +14431,8 @@
         <v>27</v>
       </c>
       <c r="E960" s="12"/>
-      <c r="F960" s="12"/>
-      <c r="G960" s="12"/>
-    </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="16" t="s">
         <v>21</v>
       </c>
@@ -15138,10 +14446,8 @@
         <v>27</v>
       </c>
       <c r="E961" s="12"/>
-      <c r="F961" s="12"/>
-      <c r="G961" s="12"/>
-    </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="16" t="s">
         <v>21</v>
       </c>
@@ -15155,10 +14461,8 @@
         <v>27</v>
       </c>
       <c r="E962" s="12"/>
-      <c r="F962" s="12"/>
-      <c r="G962" s="12"/>
-    </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="16" t="s">
         <v>21</v>
       </c>
@@ -15172,10 +14476,8 @@
         <v>27</v>
       </c>
       <c r="E963" s="7"/>
-      <c r="F963" s="7"/>
-      <c r="G963" s="7"/>
-    </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="16" t="s">
         <v>22</v>
       </c>
@@ -15189,7 +14491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="16" t="s">
         <v>22</v>
       </c>
@@ -15203,7 +14505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="16" t="s">
         <v>22</v>
       </c>
@@ -15217,7 +14519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="16" t="s">
         <v>22</v>
       </c>
@@ -15231,7 +14533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="16" t="s">
         <v>22</v>
       </c>
@@ -15245,7 +14547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="16" t="s">
         <v>22</v>
       </c>
@@ -15259,7 +14561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="16" t="s">
         <v>22</v>
       </c>
@@ -15273,7 +14575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="16" t="s">
         <v>22</v>
       </c>
@@ -15287,7 +14589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="16" t="s">
         <v>22</v>
       </c>
@@ -15301,7 +14603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="16" t="s">
         <v>22</v>
       </c>
@@ -15314,9 +14616,9 @@
       <c r="D973" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H973" s="7"/>
-    </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F973" s="7"/>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="16" t="s">
         <v>22</v>
       </c>
@@ -15330,7 +14632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="16" t="s">
         <v>22</v>
       </c>
@@ -15344,7 +14646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="16" t="s">
         <v>22</v>
       </c>
@@ -15582,7 +14884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="16" t="s">
         <v>22</v>
       </c>
@@ -15596,7 +14898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="16" t="s">
         <v>22</v>
       </c>
@@ -15610,7 +14912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="16" t="s">
         <v>22</v>
       </c>
@@ -15624,7 +14926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="16" t="s">
         <v>22</v>
       </c>
@@ -15638,7 +14940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="16" t="s">
         <v>22</v>
       </c>
@@ -15652,7 +14954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="16" t="s">
         <v>22</v>
       </c>
@@ -15666,7 +14968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="16" t="s">
         <v>22</v>
       </c>
@@ -15680,7 +14982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="16" t="s">
         <v>22</v>
       </c>
@@ -15694,7 +14996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="16" t="s">
         <v>22</v>
       </c>
@@ -15708,7 +15010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="16" t="s">
         <v>22</v>
       </c>
@@ -15722,7 +15024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="16" t="s">
         <v>22</v>
       </c>
@@ -15736,7 +15038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="16" t="s">
         <v>22</v>
       </c>
@@ -15750,7 +15052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="16" t="s">
         <v>22</v>
       </c>
@@ -15764,7 +15066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="16" t="s">
         <v>22</v>
       </c>
@@ -15778,7 +15080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="16" t="s">
         <v>22</v>
       </c>
@@ -15792,7 +15094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="16" t="s">
         <v>23</v>
       </c>
@@ -15806,10 +15108,8 @@
         <v>26</v>
       </c>
       <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-    </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="16" t="s">
         <v>23</v>
       </c>
@@ -15823,10 +15123,8 @@
         <v>26</v>
       </c>
       <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-    </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="16" t="s">
         <v>23</v>
       </c>
@@ -15840,10 +15138,8 @@
         <v>26</v>
       </c>
       <c r="E1010" s="2"/>
-      <c r="F1010" s="2"/>
-      <c r="G1010" s="2"/>
-    </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="16" t="s">
         <v>23</v>
       </c>
@@ -15857,10 +15153,8 @@
         <v>26</v>
       </c>
       <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
-      <c r="G1011" s="2"/>
-    </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="16" t="s">
         <v>23</v>
       </c>
@@ -15874,10 +15168,8 @@
         <v>26</v>
       </c>
       <c r="E1012" s="2"/>
-      <c r="F1012" s="2"/>
-      <c r="G1012" s="2"/>
-    </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="16" t="s">
         <v>23</v>
       </c>
@@ -15891,10 +15183,8 @@
         <v>26</v>
       </c>
       <c r="E1013" s="2"/>
-      <c r="F1013" s="2"/>
-      <c r="G1013" s="2"/>
-    </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="16" t="s">
         <v>23</v>
       </c>
@@ -15908,10 +15198,8 @@
         <v>26</v>
       </c>
       <c r="E1014" s="2"/>
-      <c r="F1014" s="2"/>
-      <c r="G1014" s="2"/>
-    </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="16" t="s">
         <v>23</v>
       </c>
@@ -15925,10 +15213,8 @@
         <v>26</v>
       </c>
       <c r="E1015" s="2"/>
-      <c r="F1015" s="2"/>
-      <c r="G1015" s="2"/>
-    </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1016" s="16" t="s">
         <v>23</v>
       </c>
@@ -15942,10 +15228,8 @@
         <v>26</v>
       </c>
       <c r="E1016" s="2"/>
-      <c r="F1016" s="2"/>
-      <c r="G1016" s="2"/>
-    </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" s="16" t="s">
         <v>23</v>
       </c>
@@ -15959,10 +15243,8 @@
         <v>26</v>
       </c>
       <c r="E1017" s="2"/>
-      <c r="F1017" s="2"/>
-      <c r="G1017" s="2"/>
-    </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" s="16" t="s">
         <v>23</v>
       </c>
@@ -15976,10 +15258,8 @@
         <v>26</v>
       </c>
       <c r="E1018" s="2"/>
-      <c r="F1018" s="2"/>
-      <c r="G1018" s="2"/>
-    </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" s="16" t="s">
         <v>23</v>
       </c>
@@ -15993,10 +15273,8 @@
         <v>26</v>
       </c>
       <c r="E1019" s="2"/>
-      <c r="F1019" s="2"/>
-      <c r="G1019" s="2"/>
-    </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" s="16" t="s">
         <v>23</v>
       </c>
@@ -16010,10 +15288,8 @@
         <v>26</v>
       </c>
       <c r="E1020" s="2"/>
-      <c r="F1020" s="2"/>
-      <c r="G1020" s="2"/>
-    </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" s="16" t="s">
         <v>23</v>
       </c>
@@ -16027,10 +15303,8 @@
         <v>26</v>
       </c>
       <c r="E1021" s="2"/>
-      <c r="F1021" s="2"/>
-      <c r="G1021" s="2"/>
-    </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" s="16" t="s">
         <v>23</v>
       </c>
@@ -16044,10 +15318,8 @@
         <v>26</v>
       </c>
       <c r="E1022" s="2"/>
-      <c r="F1022" s="2"/>
-      <c r="G1022" s="2"/>
-    </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" s="16" t="s">
         <v>23</v>
       </c>
@@ -16061,10 +15333,8 @@
         <v>26</v>
       </c>
       <c r="E1023" s="2"/>
-      <c r="F1023" s="2"/>
-      <c r="G1023" s="2"/>
-    </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" s="16" t="s">
         <v>23</v>
       </c>
@@ -16078,10 +15348,8 @@
         <v>26</v>
       </c>
       <c r="E1024" s="2"/>
-      <c r="F1024" s="2"/>
-      <c r="G1024" s="2"/>
-    </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" s="16" t="s">
         <v>23</v>
       </c>
@@ -16095,10 +15363,8 @@
         <v>26</v>
       </c>
       <c r="E1025" s="2"/>
-      <c r="F1025" s="2"/>
-      <c r="G1025" s="2"/>
-    </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" s="16" t="s">
         <v>23</v>
       </c>
@@ -16112,10 +15378,8 @@
         <v>26</v>
       </c>
       <c r="E1026" s="2"/>
-      <c r="F1026" s="2"/>
-      <c r="G1026" s="2"/>
-    </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1027" s="16" t="s">
         <v>23</v>
       </c>
@@ -16129,10 +15393,8 @@
         <v>26</v>
       </c>
       <c r="E1027" s="2"/>
-      <c r="F1027" s="2"/>
-      <c r="G1027" s="2"/>
-    </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1028" s="16" t="s">
         <v>23</v>
       </c>
@@ -16146,10 +15408,8 @@
         <v>26</v>
       </c>
       <c r="E1028" s="2"/>
-      <c r="F1028" s="2"/>
-      <c r="G1028" s="2"/>
-    </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1029" s="16" t="s">
         <v>23</v>
       </c>
@@ -16163,10 +15423,8 @@
         <v>26</v>
       </c>
       <c r="E1029" s="7"/>
-      <c r="F1029" s="7"/>
-      <c r="G1029" s="7"/>
-    </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1030" s="16" t="s">
         <v>23</v>
       </c>
@@ -16180,10 +15438,8 @@
         <v>27</v>
       </c>
       <c r="E1030" s="6"/>
-      <c r="F1030" s="6"/>
-      <c r="G1030" s="6"/>
-    </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1031" s="16" t="s">
         <v>23</v>
       </c>
@@ -16197,10 +15453,8 @@
         <v>27</v>
       </c>
       <c r="E1031" s="6"/>
-      <c r="F1031" s="6"/>
-      <c r="G1031" s="6"/>
-    </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1032" s="16" t="s">
         <v>23</v>
       </c>
@@ -16214,10 +15468,8 @@
         <v>27</v>
       </c>
       <c r="E1032" s="6"/>
-      <c r="F1032" s="6"/>
-      <c r="G1032" s="6"/>
-    </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1033" s="16" t="s">
         <v>23</v>
       </c>
@@ -16231,10 +15483,8 @@
         <v>27</v>
       </c>
       <c r="E1033" s="6"/>
-      <c r="F1033" s="6"/>
-      <c r="G1033" s="6"/>
-    </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1034" s="16" t="s">
         <v>23</v>
       </c>
@@ -16248,10 +15498,8 @@
         <v>27</v>
       </c>
       <c r="E1034" s="6"/>
-      <c r="F1034" s="6"/>
-      <c r="G1034" s="6"/>
-    </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1035" s="16" t="s">
         <v>23</v>
       </c>
@@ -16265,10 +15513,8 @@
         <v>27</v>
       </c>
       <c r="E1035" s="6"/>
-      <c r="F1035" s="6"/>
-      <c r="G1035" s="6"/>
-    </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1036" s="16" t="s">
         <v>23</v>
       </c>
@@ -16282,10 +15528,8 @@
         <v>27</v>
       </c>
       <c r="E1036" s="6"/>
-      <c r="F1036" s="6"/>
-      <c r="G1036" s="6"/>
-    </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1037" s="16" t="s">
         <v>23</v>
       </c>
@@ -16299,10 +15543,8 @@
         <v>27</v>
       </c>
       <c r="E1037" s="6"/>
-      <c r="F1037" s="6"/>
-      <c r="G1037" s="6"/>
-    </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1038" s="16" t="s">
         <v>23</v>
       </c>
@@ -16316,10 +15558,8 @@
         <v>27</v>
       </c>
       <c r="E1038" s="6"/>
-      <c r="F1038" s="6"/>
-      <c r="G1038" s="6"/>
-    </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1039" s="16" t="s">
         <v>23</v>
       </c>
@@ -16333,10 +15573,8 @@
         <v>27</v>
       </c>
       <c r="E1039" s="6"/>
-      <c r="F1039" s="6"/>
-      <c r="G1039" s="6"/>
-    </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1040" s="16" t="s">
         <v>23</v>
       </c>
@@ -16350,10 +15588,8 @@
         <v>27</v>
       </c>
       <c r="E1040" s="6"/>
-      <c r="F1040" s="6"/>
-      <c r="G1040" s="6"/>
-    </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" s="16" t="s">
         <v>23</v>
       </c>
@@ -16367,10 +15603,8 @@
         <v>27</v>
       </c>
       <c r="E1041" s="6"/>
-      <c r="F1041" s="6"/>
-      <c r="G1041" s="6"/>
-    </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" s="16" t="s">
         <v>23</v>
       </c>
@@ -16384,10 +15618,8 @@
         <v>27</v>
       </c>
       <c r="E1042" s="6"/>
-      <c r="F1042" s="6"/>
-      <c r="G1042" s="6"/>
-    </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" s="16" t="s">
         <v>23</v>
       </c>
@@ -16401,10 +15633,8 @@
         <v>27</v>
       </c>
       <c r="E1043" s="6"/>
-      <c r="F1043" s="6"/>
-      <c r="G1043" s="6"/>
-    </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" s="16" t="s">
         <v>23</v>
       </c>
@@ -16418,10 +15648,8 @@
         <v>27</v>
       </c>
       <c r="E1044" s="6"/>
-      <c r="F1044" s="6"/>
-      <c r="G1044" s="6"/>
-    </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" s="16" t="s">
         <v>23</v>
       </c>
@@ -16435,10 +15663,8 @@
         <v>27</v>
       </c>
       <c r="E1045" s="6"/>
-      <c r="F1045" s="6"/>
-      <c r="G1045" s="6"/>
-    </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" s="16" t="s">
         <v>23</v>
       </c>
@@ -16452,10 +15678,8 @@
         <v>27</v>
       </c>
       <c r="E1046" s="6"/>
-      <c r="F1046" s="6"/>
-      <c r="G1046" s="6"/>
-    </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" s="16" t="s">
         <v>23</v>
       </c>
@@ -16469,10 +15693,8 @@
         <v>27</v>
       </c>
       <c r="E1047" s="6"/>
-      <c r="F1047" s="6"/>
-      <c r="G1047" s="6"/>
-    </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" s="16" t="s">
         <v>23</v>
       </c>
@@ -16486,10 +15708,8 @@
         <v>27</v>
       </c>
       <c r="E1048" s="6"/>
-      <c r="F1048" s="6"/>
-      <c r="G1048" s="6"/>
-    </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" s="16" t="s">
         <v>23</v>
       </c>
@@ -16503,10 +15723,8 @@
         <v>27</v>
       </c>
       <c r="E1049" s="6"/>
-      <c r="F1049" s="6"/>
-      <c r="G1049" s="6"/>
-    </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" s="16" t="s">
         <v>23</v>
       </c>
@@ -16520,10 +15738,8 @@
         <v>27</v>
       </c>
       <c r="E1050" s="6"/>
-      <c r="F1050" s="6"/>
-      <c r="G1050" s="6"/>
-    </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" s="16" t="s">
         <v>23</v>
       </c>
@@ -16537,10 +15753,8 @@
         <v>27</v>
       </c>
       <c r="E1051" s="7"/>
-      <c r="F1051" s="7"/>
-      <c r="G1051" s="7"/>
-    </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" s="16" t="s">
         <v>30</v>
       </c>
@@ -16554,10 +15768,8 @@
         <v>26</v>
       </c>
       <c r="E1052" s="2"/>
-      <c r="F1052" s="2"/>
-      <c r="G1052" s="2"/>
-    </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1053" s="16" t="s">
         <v>30</v>
       </c>
@@ -16571,10 +15783,8 @@
         <v>26</v>
       </c>
       <c r="E1053" s="2"/>
-      <c r="F1053" s="2"/>
-      <c r="G1053" s="2"/>
-    </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" s="16" t="s">
         <v>30</v>
       </c>
@@ -16588,10 +15798,8 @@
         <v>26</v>
       </c>
       <c r="E1054" s="2"/>
-      <c r="F1054" s="2"/>
-      <c r="G1054" s="2"/>
-    </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" s="16" t="s">
         <v>30</v>
       </c>
@@ -16605,10 +15813,8 @@
         <v>26</v>
       </c>
       <c r="E1055" s="2"/>
-      <c r="F1055" s="2"/>
-      <c r="G1055" s="2"/>
-    </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" s="16" t="s">
         <v>30</v>
       </c>
@@ -16622,10 +15828,8 @@
         <v>26</v>
       </c>
       <c r="E1056" s="2"/>
-      <c r="F1056" s="2"/>
-      <c r="G1056" s="2"/>
-    </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" s="16" t="s">
         <v>30</v>
       </c>
@@ -16639,10 +15843,8 @@
         <v>26</v>
       </c>
       <c r="E1057" s="2"/>
-      <c r="F1057" s="2"/>
-      <c r="G1057" s="2"/>
-    </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" s="16" t="s">
         <v>30</v>
       </c>
@@ -16656,10 +15858,8 @@
         <v>26</v>
       </c>
       <c r="E1058" s="2"/>
-      <c r="F1058" s="2"/>
-      <c r="G1058" s="2"/>
-    </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1059" s="16" t="s">
         <v>30</v>
       </c>
@@ -16673,10 +15873,8 @@
         <v>26</v>
       </c>
       <c r="E1059" s="2"/>
-      <c r="F1059" s="2"/>
-      <c r="G1059" s="2"/>
-    </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" s="16" t="s">
         <v>30</v>
       </c>
@@ -16690,10 +15888,8 @@
         <v>26</v>
       </c>
       <c r="E1060" s="2"/>
-      <c r="F1060" s="2"/>
-      <c r="G1060" s="2"/>
-    </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" s="16" t="s">
         <v>30</v>
       </c>
@@ -16707,10 +15903,8 @@
         <v>26</v>
       </c>
       <c r="E1061" s="2"/>
-      <c r="F1061" s="2"/>
-      <c r="G1061" s="2"/>
-    </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1062" s="16" t="s">
         <v>30</v>
       </c>
@@ -16724,10 +15918,8 @@
         <v>26</v>
       </c>
       <c r="E1062" s="2"/>
-      <c r="F1062" s="2"/>
-      <c r="G1062" s="2"/>
-    </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" s="16" t="s">
         <v>30</v>
       </c>
@@ -16741,10 +15933,8 @@
         <v>26</v>
       </c>
       <c r="E1063" s="2"/>
-      <c r="F1063" s="2"/>
-      <c r="G1063" s="2"/>
-    </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" s="16" t="s">
         <v>30</v>
       </c>
@@ -16758,10 +15948,8 @@
         <v>26</v>
       </c>
       <c r="E1064" s="2"/>
-      <c r="F1064" s="2"/>
-      <c r="G1064" s="2"/>
-    </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" s="16" t="s">
         <v>30</v>
       </c>
@@ -16775,10 +15963,8 @@
         <v>26</v>
       </c>
       <c r="E1065" s="2"/>
-      <c r="F1065" s="2"/>
-      <c r="G1065" s="2"/>
-    </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" s="16" t="s">
         <v>30</v>
       </c>
@@ -16792,10 +15978,8 @@
         <v>26</v>
       </c>
       <c r="E1066" s="2"/>
-      <c r="F1066" s="2"/>
-      <c r="G1066" s="2"/>
-    </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" s="16" t="s">
         <v>30</v>
       </c>
@@ -16809,10 +15993,8 @@
         <v>26</v>
       </c>
       <c r="E1067" s="2"/>
-      <c r="F1067" s="2"/>
-      <c r="G1067" s="2"/>
-    </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" s="16" t="s">
         <v>30</v>
       </c>
@@ -16826,10 +16008,8 @@
         <v>26</v>
       </c>
       <c r="E1068" s="2"/>
-      <c r="F1068" s="2"/>
-      <c r="G1068" s="2"/>
-    </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" s="16" t="s">
         <v>30</v>
       </c>
@@ -16843,10 +16023,8 @@
         <v>26</v>
       </c>
       <c r="E1069" s="2"/>
-      <c r="F1069" s="2"/>
-      <c r="G1069" s="2"/>
-    </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" s="16" t="s">
         <v>30</v>
       </c>
@@ -16860,10 +16038,8 @@
         <v>26</v>
       </c>
       <c r="E1070" s="2"/>
-      <c r="F1070" s="2"/>
-      <c r="G1070" s="2"/>
-    </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" s="16" t="s">
         <v>30</v>
       </c>
@@ -16877,10 +16053,8 @@
         <v>26</v>
       </c>
       <c r="E1071" s="2"/>
-      <c r="F1071" s="2"/>
-      <c r="G1071" s="2"/>
-    </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" s="16" t="s">
         <v>30</v>
       </c>
@@ -16894,10 +16068,8 @@
         <v>26</v>
       </c>
       <c r="E1072" s="2"/>
-      <c r="F1072" s="2"/>
-      <c r="G1072" s="2"/>
-    </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" s="16" t="s">
         <v>30</v>
       </c>
@@ -16911,10 +16083,8 @@
         <v>26</v>
       </c>
       <c r="E1073" s="7"/>
-      <c r="F1073" s="7"/>
-      <c r="G1073" s="7"/>
-    </row>
-    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" s="16" t="s">
         <v>30</v>
       </c>
@@ -16928,10 +16098,8 @@
         <v>27</v>
       </c>
       <c r="E1074" s="2"/>
-      <c r="F1074" s="2"/>
-      <c r="G1074" s="2"/>
-    </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1075" s="16" t="s">
         <v>30</v>
       </c>
@@ -16945,10 +16113,8 @@
         <v>27</v>
       </c>
       <c r="E1075" s="2"/>
-      <c r="F1075" s="2"/>
-      <c r="G1075" s="2"/>
-    </row>
-    <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" s="16" t="s">
         <v>30</v>
       </c>
@@ -16962,10 +16128,8 @@
         <v>27</v>
       </c>
       <c r="E1076" s="2"/>
-      <c r="F1076" s="2"/>
-      <c r="G1076" s="2"/>
-    </row>
-    <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" s="16" t="s">
         <v>30</v>
       </c>
@@ -16979,10 +16143,8 @@
         <v>27</v>
       </c>
       <c r="E1077" s="2"/>
-      <c r="F1077" s="2"/>
-      <c r="G1077" s="2"/>
-    </row>
-    <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" s="16" t="s">
         <v>30</v>
       </c>
@@ -16996,10 +16158,8 @@
         <v>27</v>
       </c>
       <c r="E1078" s="2"/>
-      <c r="F1078" s="2"/>
-      <c r="G1078" s="2"/>
-    </row>
-    <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" s="16" t="s">
         <v>30</v>
       </c>
@@ -17013,10 +16173,8 @@
         <v>27</v>
       </c>
       <c r="E1079" s="2"/>
-      <c r="F1079" s="2"/>
-      <c r="G1079" s="2"/>
-    </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1080" s="16" t="s">
         <v>30</v>
       </c>
@@ -17030,10 +16188,8 @@
         <v>27</v>
       </c>
       <c r="E1080" s="2"/>
-      <c r="F1080" s="2"/>
-      <c r="G1080" s="2"/>
-    </row>
-    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" s="16" t="s">
         <v>30</v>
       </c>
@@ -17047,10 +16203,8 @@
         <v>27</v>
       </c>
       <c r="E1081" s="2"/>
-      <c r="F1081" s="2"/>
-      <c r="G1081" s="2"/>
-    </row>
-    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" s="16" t="s">
         <v>30</v>
       </c>
@@ -17064,10 +16218,8 @@
         <v>27</v>
       </c>
       <c r="E1082" s="2"/>
-      <c r="F1082" s="2"/>
-      <c r="G1082" s="2"/>
-    </row>
-    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" s="16" t="s">
         <v>30</v>
       </c>
@@ -17081,10 +16233,8 @@
         <v>27</v>
       </c>
       <c r="E1083" s="2"/>
-      <c r="F1083" s="2"/>
-      <c r="G1083" s="2"/>
-    </row>
-    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" s="16" t="s">
         <v>30</v>
       </c>
@@ -17098,10 +16248,8 @@
         <v>27</v>
       </c>
       <c r="E1084" s="2"/>
-      <c r="F1084" s="2"/>
-      <c r="G1084" s="2"/>
-    </row>
-    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1085" s="16" t="s">
         <v>30</v>
       </c>
@@ -17115,10 +16263,8 @@
         <v>27</v>
       </c>
       <c r="E1085" s="2"/>
-      <c r="F1085" s="2"/>
-      <c r="G1085" s="2"/>
-    </row>
-    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1086" s="16" t="s">
         <v>30</v>
       </c>
@@ -17132,10 +16278,8 @@
         <v>27</v>
       </c>
       <c r="E1086" s="2"/>
-      <c r="F1086" s="2"/>
-      <c r="G1086" s="2"/>
-    </row>
-    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1087" s="16" t="s">
         <v>30</v>
       </c>
@@ -17149,10 +16293,8 @@
         <v>27</v>
       </c>
       <c r="E1087" s="2"/>
-      <c r="F1087" s="2"/>
-      <c r="G1087" s="2"/>
-    </row>
-    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" s="16" t="s">
         <v>30</v>
       </c>
@@ -17166,10 +16308,8 @@
         <v>27</v>
       </c>
       <c r="E1088" s="2"/>
-      <c r="F1088" s="2"/>
-      <c r="G1088" s="2"/>
-    </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1089" s="16" t="s">
         <v>30</v>
       </c>
@@ -17183,10 +16323,8 @@
         <v>27</v>
       </c>
       <c r="E1089" s="2"/>
-      <c r="F1089" s="2"/>
-      <c r="G1089" s="2"/>
-    </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1090" s="16" t="s">
         <v>30</v>
       </c>
@@ -17200,10 +16338,8 @@
         <v>27</v>
       </c>
       <c r="E1090" s="2"/>
-      <c r="F1090" s="2"/>
-      <c r="G1090" s="2"/>
-    </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" s="16" t="s">
         <v>30</v>
       </c>
@@ -17217,10 +16353,8 @@
         <v>27</v>
       </c>
       <c r="E1091" s="2"/>
-      <c r="F1091" s="2"/>
-      <c r="G1091" s="2"/>
-    </row>
-    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" s="16" t="s">
         <v>30</v>
       </c>
@@ -17234,10 +16368,8 @@
         <v>27</v>
       </c>
       <c r="E1092" s="2"/>
-      <c r="F1092" s="2"/>
-      <c r="G1092" s="2"/>
-    </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1093" s="16" t="s">
         <v>30</v>
       </c>
@@ -17251,10 +16383,8 @@
         <v>27</v>
       </c>
       <c r="E1093" s="2"/>
-      <c r="F1093" s="2"/>
-      <c r="G1093" s="2"/>
-    </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" s="16" t="s">
         <v>30</v>
       </c>
@@ -17268,10 +16398,8 @@
         <v>27</v>
       </c>
       <c r="E1094" s="2"/>
-      <c r="F1094" s="2"/>
-      <c r="G1094" s="2"/>
-    </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1095" s="16" t="s">
         <v>30</v>
       </c>
@@ -17285,10 +16413,8 @@
         <v>27</v>
       </c>
       <c r="E1095" s="7"/>
-      <c r="F1095" s="7"/>
-      <c r="G1095" s="7"/>
-    </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" s="16" t="s">
         <v>28</v>
       </c>
@@ -17296,13 +16422,13 @@
         <v>1995</v>
       </c>
       <c r="C1096" s="3">
-        <v>36756</v>
+        <v>34396</v>
       </c>
       <c r="D1096" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" s="16" t="s">
         <v>28</v>
       </c>
@@ -17310,13 +16436,13 @@
         <v>1996</v>
       </c>
       <c r="C1097" s="3">
-        <v>31308</v>
+        <v>34245</v>
       </c>
       <c r="D1097" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1098" s="16" t="s">
         <v>28</v>
       </c>
@@ -17324,13 +16450,13 @@
         <v>1997</v>
       </c>
       <c r="C1098" s="3">
-        <v>31257</v>
+        <v>31271</v>
       </c>
       <c r="D1098" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" s="16" t="s">
         <v>28</v>
       </c>
@@ -17338,13 +16464,13 @@
         <v>1998</v>
       </c>
       <c r="C1099" s="3">
-        <v>28917</v>
+        <v>29972</v>
       </c>
       <c r="D1099" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" s="16" t="s">
         <v>28</v>
       </c>
@@ -17352,13 +16478,13 @@
         <v>1999</v>
       </c>
       <c r="C1100" s="3">
-        <v>27190</v>
+        <v>29482</v>
       </c>
       <c r="D1100" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1101" s="16" t="s">
         <v>28</v>
       </c>
@@ -17366,13 +16492,13 @@
         <v>2000</v>
       </c>
       <c r="C1101" s="3">
-        <v>28598</v>
+        <v>29571</v>
       </c>
       <c r="D1101" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" s="16" t="s">
         <v>28</v>
       </c>
@@ -17380,13 +16506,13 @@
         <v>2001</v>
       </c>
       <c r="C1102" s="3">
-        <v>25537</v>
+        <v>26946</v>
       </c>
       <c r="D1102" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" s="16" t="s">
         <v>28</v>
       </c>
@@ -17394,13 +16520,13 @@
         <v>2002</v>
       </c>
       <c r="C1103" s="3">
-        <v>21971</v>
+        <v>22593</v>
       </c>
       <c r="D1103" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1104" s="16" t="s">
         <v>28</v>
       </c>
@@ -17408,7 +16534,7 @@
         <v>2003</v>
       </c>
       <c r="C1104" s="3">
-        <v>32039</v>
+        <v>26422</v>
       </c>
       <c r="D1104" s="16" t="s">
         <v>26</v>
@@ -17422,7 +16548,7 @@
         <v>2004</v>
       </c>
       <c r="C1105" s="3">
-        <v>29388</v>
+        <v>25976</v>
       </c>
       <c r="D1105" s="16" t="s">
         <v>26</v>
@@ -17436,7 +16562,7 @@
         <v>2005</v>
       </c>
       <c r="C1106" s="3">
-        <v>33409</v>
+        <v>23657</v>
       </c>
       <c r="D1106" s="16" t="s">
         <v>26</v>
@@ -17450,7 +16576,7 @@
         <v>2006</v>
       </c>
       <c r="C1107" s="3">
-        <v>29472</v>
+        <v>18629</v>
       </c>
       <c r="D1107" s="16" t="s">
         <v>26</v>
@@ -17464,7 +16590,7 @@
         <v>2007</v>
       </c>
       <c r="C1108" s="3">
-        <v>26017</v>
+        <v>20649</v>
       </c>
       <c r="D1108" s="16" t="s">
         <v>26</v>
@@ -17478,7 +16604,7 @@
         <v>2008</v>
       </c>
       <c r="C1109" s="3">
-        <v>26356</v>
+        <v>19729</v>
       </c>
       <c r="D1109" s="16" t="s">
         <v>26</v>
@@ -17492,7 +16618,7 @@
         <v>2009</v>
       </c>
       <c r="C1110" s="3">
-        <v>35490</v>
+        <v>22817</v>
       </c>
       <c r="D1110" s="16" t="s">
         <v>26</v>
@@ -17506,7 +16632,7 @@
         <v>2010</v>
       </c>
       <c r="C1111" s="3">
-        <v>36509</v>
+        <v>33333</v>
       </c>
       <c r="D1111" s="16" t="s">
         <v>26</v>
@@ -17520,7 +16646,7 @@
         <v>2011</v>
       </c>
       <c r="C1112" s="3">
-        <v>37894</v>
+        <v>37427</v>
       </c>
       <c r="D1112" s="16" t="s">
         <v>26</v>
@@ -17534,7 +16660,7 @@
         <v>2012</v>
       </c>
       <c r="C1113" s="3">
-        <v>34479</v>
+        <v>33139</v>
       </c>
       <c r="D1113" s="16" t="s">
         <v>26</v>
@@ -17548,7 +16674,7 @@
         <v>2013</v>
       </c>
       <c r="C1114" s="3">
-        <v>47389</v>
+        <v>34667</v>
       </c>
       <c r="D1114" s="16" t="s">
         <v>26</v>
@@ -17562,7 +16688,7 @@
         <v>1995</v>
       </c>
       <c r="C1115" s="3">
-        <v>6759</v>
+        <v>2221</v>
       </c>
       <c r="D1115" s="16" t="s">
         <v>27</v>
@@ -17576,7 +16702,7 @@
         <v>1996</v>
       </c>
       <c r="C1116" s="3">
-        <v>6387</v>
+        <v>2199.8000000000002</v>
       </c>
       <c r="D1116" s="16" t="s">
         <v>27</v>
@@ -17590,7 +16716,7 @@
         <v>1997</v>
       </c>
       <c r="C1117" s="3">
-        <v>6338</v>
+        <v>2169.1</v>
       </c>
       <c r="D1117" s="16" t="s">
         <v>27</v>
@@ -17604,7 +16730,7 @@
         <v>1998</v>
       </c>
       <c r="C1118" s="3">
-        <v>6141</v>
+        <v>2138.6</v>
       </c>
       <c r="D1118" s="16" t="s">
         <v>27</v>
@@ -17618,7 +16744,7 @@
         <v>1999</v>
       </c>
       <c r="C1119" s="3">
-        <v>6377</v>
+        <v>2109.9</v>
       </c>
       <c r="D1119" s="16" t="s">
         <v>27</v>
@@ -17632,7 +16758,7 @@
         <v>2000</v>
       </c>
       <c r="C1120" s="3">
-        <v>6419</v>
+        <v>2079</v>
       </c>
       <c r="D1120" s="16" t="s">
         <v>27</v>
@@ -17646,7 +16772,7 @@
         <v>2001</v>
       </c>
       <c r="C1121" s="3">
-        <v>6044</v>
+        <v>2050.6999999999998</v>
       </c>
       <c r="D1121" s="16" t="s">
         <v>27</v>
@@ -17660,7 +16786,7 @@
         <v>2002</v>
       </c>
       <c r="C1122" s="3">
-        <v>5502</v>
+        <v>2033.7</v>
       </c>
       <c r="D1122" s="16" t="s">
         <v>27</v>
@@ -17674,7 +16800,7 @@
         <v>2003</v>
       </c>
       <c r="C1123" s="3">
-        <v>6168</v>
+        <v>2018.4</v>
       </c>
       <c r="D1123" s="16" t="s">
         <v>27</v>
@@ -17688,7 +16814,7 @@
         <v>2004</v>
       </c>
       <c r="C1124" s="3">
-        <v>6135</v>
+        <v>2005.127</v>
       </c>
       <c r="D1124" s="16" t="s">
         <v>27</v>
@@ -17702,7 +16828,7 @@
         <v>2005</v>
       </c>
       <c r="C1125" s="3">
-        <v>5686</v>
+        <v>1994.25</v>
       </c>
       <c r="D1125" s="16" t="s">
         <v>27</v>
@@ -17716,7 +16842,7 @@
         <v>2006</v>
       </c>
       <c r="C1126" s="3">
-        <v>5353</v>
+        <v>1983.825</v>
       </c>
       <c r="D1126" s="16" t="s">
         <v>27</v>
@@ -17730,7 +16856,7 @@
         <v>2007</v>
       </c>
       <c r="C1127" s="3">
-        <v>4904</v>
+        <v>1977.134</v>
       </c>
       <c r="D1127" s="16" t="s">
         <v>27</v>
@@ -17744,7 +16870,7 @@
         <v>2008</v>
       </c>
       <c r="C1128" s="3">
-        <v>4708</v>
+        <v>1971.0719999999999</v>
       </c>
       <c r="D1128" s="16" t="s">
         <v>27</v>
@@ -17758,7 +16884,7 @@
         <v>2009</v>
       </c>
       <c r="C1129" s="3">
-        <v>5228</v>
+        <v>1967.26</v>
       </c>
       <c r="D1129" s="16" t="s">
         <v>27</v>
@@ -17772,7 +16898,7 @@
         <v>2010</v>
       </c>
       <c r="C1130" s="3">
-        <v>5373</v>
+        <v>1965.3050000000001</v>
       </c>
       <c r="D1130" s="16" t="s">
         <v>27</v>
@@ -17786,7 +16912,7 @@
         <v>2011</v>
       </c>
       <c r="C1131" s="3">
-        <v>5352</v>
+        <v>1963.5139999999999</v>
       </c>
       <c r="D1131" s="16" t="s">
         <v>27</v>
@@ -17800,7 +16926,7 @@
         <v>2012</v>
       </c>
       <c r="C1132" s="3">
-        <v>4330</v>
+        <v>1963.008</v>
       </c>
       <c r="D1132" s="16" t="s">
         <v>27</v>
@@ -17814,7 +16940,7 @@
         <v>2013</v>
       </c>
       <c r="C1133" s="3">
-        <v>5567</v>
+        <v>1965.1769999999999</v>
       </c>
       <c r="D1133" s="16" t="s">
         <v>27</v>
@@ -17828,7 +16954,7 @@
         <v>1995</v>
       </c>
       <c r="C1134" s="3">
-        <v>6759</v>
+        <v>3892</v>
       </c>
       <c r="D1134" s="16" t="s">
         <v>26</v>
@@ -17842,7 +16968,7 @@
         <v>1996</v>
       </c>
       <c r="C1135" s="3">
-        <v>6387</v>
+        <v>3872</v>
       </c>
       <c r="D1135" s="16" t="s">
         <v>26</v>
@@ -17856,7 +16982,7 @@
         <v>1997</v>
       </c>
       <c r="C1136" s="3">
-        <v>6338</v>
+        <v>3752</v>
       </c>
       <c r="D1136" s="16" t="s">
         <v>26</v>
@@ -17870,7 +16996,7 @@
         <v>1998</v>
       </c>
       <c r="C1137" s="3">
-        <v>6141</v>
+        <v>3953</v>
       </c>
       <c r="D1137" s="16" t="s">
         <v>26</v>
@@ -17884,7 +17010,7 @@
         <v>1999</v>
       </c>
       <c r="C1138" s="3">
-        <v>6377</v>
+        <v>4315</v>
       </c>
       <c r="D1138" s="16" t="s">
         <v>26</v>
@@ -17898,7 +17024,7 @@
         <v>2000</v>
       </c>
       <c r="C1139" s="3">
-        <v>6419</v>
+        <v>4235</v>
       </c>
       <c r="D1139" s="16" t="s">
         <v>26</v>
@@ -17912,7 +17038,7 @@
         <v>2001</v>
       </c>
       <c r="C1140" s="3">
-        <v>6044</v>
+        <v>3830</v>
       </c>
       <c r="D1140" s="16" t="s">
         <v>26</v>
@@ -17926,7 +17052,7 @@
         <v>2002</v>
       </c>
       <c r="C1141" s="3">
-        <v>5502</v>
+        <v>3571</v>
       </c>
       <c r="D1141" s="16" t="s">
         <v>26</v>
@@ -17940,7 +17066,7 @@
         <v>2003</v>
       </c>
       <c r="C1142" s="3">
-        <v>6168</v>
+        <v>5171</v>
       </c>
       <c r="D1142" s="16" t="s">
         <v>26</v>
@@ -17954,7 +17080,7 @@
         <v>2004</v>
       </c>
       <c r="C1143" s="3">
-        <v>6135</v>
+        <v>4687</v>
       </c>
       <c r="D1143" s="16" t="s">
         <v>26</v>
@@ -17968,7 +17094,7 @@
         <v>2005</v>
       </c>
       <c r="C1144" s="3">
-        <v>5686</v>
+        <v>4705</v>
       </c>
       <c r="D1144" s="16" t="s">
         <v>26</v>
@@ -17982,7 +17108,7 @@
         <v>2006</v>
       </c>
       <c r="C1145" s="3">
-        <v>5353</v>
+        <v>4639</v>
       </c>
       <c r="D1145" s="16" t="s">
         <v>26</v>
@@ -17996,7 +17122,7 @@
         <v>2007</v>
       </c>
       <c r="C1146" s="3">
-        <v>4904</v>
+        <v>4317</v>
       </c>
       <c r="D1146" s="16" t="s">
         <v>26</v>
@@ -18010,7 +17136,7 @@
         <v>2008</v>
       </c>
       <c r="C1147" s="3">
-        <v>4708</v>
+        <v>4711</v>
       </c>
       <c r="D1147" s="16" t="s">
         <v>26</v>
@@ -18024,7 +17150,7 @@
         <v>2009</v>
       </c>
       <c r="C1148" s="3">
-        <v>5228</v>
+        <v>5157</v>
       </c>
       <c r="D1148" s="16" t="s">
         <v>26</v>
@@ -18038,7 +17164,7 @@
         <v>2010</v>
       </c>
       <c r="C1149" s="3">
-        <v>5373</v>
+        <v>5490</v>
       </c>
       <c r="D1149" s="16" t="s">
         <v>26</v>
@@ -18052,7 +17178,7 @@
         <v>2011</v>
       </c>
       <c r="C1150" s="3">
-        <v>5352</v>
+        <v>7055</v>
       </c>
       <c r="D1150" s="16" t="s">
         <v>26</v>
@@ -18066,7 +17192,7 @@
         <v>2012</v>
       </c>
       <c r="C1151" s="3">
-        <v>4330</v>
+        <v>6464</v>
       </c>
       <c r="D1151" s="16" t="s">
         <v>26</v>
@@ -18080,7 +17206,7 @@
         <v>2013</v>
       </c>
       <c r="C1152" s="3">
-        <v>5567</v>
+        <v>7929</v>
       </c>
       <c r="D1152" s="16" t="s">
         <v>26</v>
@@ -18094,7 +17220,7 @@
         <v>1995</v>
       </c>
       <c r="C1153" s="3">
-        <v>945.4</v>
+        <v>411.4</v>
       </c>
       <c r="D1153" s="16" t="s">
         <v>27</v>
@@ -18108,7 +17234,7 @@
         <v>1996</v>
       </c>
       <c r="C1154" s="3">
-        <v>945.4</v>
+        <v>406.9</v>
       </c>
       <c r="D1154" s="16" t="s">
         <v>27</v>
@@ -18122,7 +17248,7 @@
         <v>1997</v>
       </c>
       <c r="C1155" s="3">
-        <v>942.8</v>
+        <v>401.5</v>
       </c>
       <c r="D1155" s="16" t="s">
         <v>27</v>
@@ -18136,7 +17262,7 @@
         <v>1998</v>
       </c>
       <c r="C1156" s="3">
-        <v>939.8</v>
+        <v>396.6</v>
       </c>
       <c r="D1156" s="16" t="s">
         <v>27</v>
@@ -18150,7 +17276,7 @@
         <v>1999</v>
       </c>
       <c r="C1157" s="3">
-        <v>936.6</v>
+        <v>391.4</v>
       </c>
       <c r="D1157" s="16" t="s">
         <v>27</v>
@@ -18164,7 +17290,7 @@
         <v>2000</v>
       </c>
       <c r="C1158" s="3">
-        <v>932.3</v>
+        <v>387.2</v>
       </c>
       <c r="D1158" s="16" t="s">
         <v>27</v>
@@ -18178,7 +17304,7 @@
         <v>2001</v>
       </c>
       <c r="C1159" s="3">
-        <v>927.9</v>
+        <v>383</v>
       </c>
       <c r="D1159" s="16" t="s">
         <v>27</v>
@@ -18192,7 +17318,7 @@
         <v>2002</v>
       </c>
       <c r="C1160" s="3">
-        <v>922.8</v>
+        <v>379.5</v>
       </c>
       <c r="D1160" s="16" t="s">
         <v>27</v>
@@ -18206,7 +17332,7 @@
         <v>2003</v>
       </c>
       <c r="C1161" s="3">
-        <v>918.5</v>
+        <v>378.5</v>
       </c>
       <c r="D1161" s="16" t="s">
         <v>27</v>
@@ -18220,7 +17346,7 @@
         <v>2004</v>
       </c>
       <c r="C1162" s="3">
-        <v>914.6</v>
+        <v>378.35300000000001</v>
       </c>
       <c r="D1162" s="16" t="s">
         <v>27</v>
@@ -18234,7 +17360,7 @@
         <v>2005</v>
       </c>
       <c r="C1163" s="3">
-        <v>911.5</v>
+        <v>378.608</v>
       </c>
       <c r="D1163" s="16" t="s">
         <v>27</v>
@@ -18248,7 +17374,7 @@
         <v>2006</v>
       </c>
       <c r="C1164" s="3">
-        <v>908.2</v>
+        <v>379.072</v>
       </c>
       <c r="D1164" s="16" t="s">
         <v>27</v>
@@ -18262,7 +17388,7 @@
         <v>2007</v>
       </c>
       <c r="C1165" s="3">
-        <v>906.3</v>
+        <v>379.23200000000003</v>
       </c>
       <c r="D1165" s="16" t="s">
         <v>27</v>
@@ -18276,7 +17402,7 @@
         <v>2008</v>
       </c>
       <c r="C1166" s="3">
-        <v>904.5</v>
+        <v>379.45100000000002</v>
       </c>
       <c r="D1166" s="16" t="s">
         <v>27</v>
@@ -18290,7 +17416,7 @@
         <v>2009</v>
       </c>
       <c r="C1167" s="3">
-        <v>904.1</v>
+        <v>380.06900000000002</v>
       </c>
       <c r="D1167" s="16" t="s">
         <v>27</v>
@@ -18304,7 +17430,7 @@
         <v>2010</v>
       </c>
       <c r="C1168" s="3">
-        <v>904.4</v>
+        <v>380.45600000000002</v>
       </c>
       <c r="D1168" s="16" t="s">
         <v>27</v>
@@ -18318,7 +17444,7 @@
         <v>2011</v>
       </c>
       <c r="C1169" s="3">
-        <v>904.3</v>
+        <v>380.82100000000003</v>
       </c>
       <c r="D1169" s="16" t="s">
         <v>27</v>
@@ -18332,7 +17458,7 @@
         <v>2012</v>
       </c>
       <c r="C1170" s="3">
-        <v>905.3</v>
+        <v>381.23399999999998</v>
       </c>
       <c r="D1170" s="16" t="s">
         <v>27</v>
@@ -18346,7 +17472,7 @@
         <v>2013</v>
       </c>
       <c r="C1171" s="3">
-        <v>907.2</v>
+        <v>383.43700000000001</v>
       </c>
       <c r="D1171" s="16" t="s">
         <v>27</v>
